--- a/MARATHON_80/test.xlsx
+++ b/MARATHON_80/test.xlsx
@@ -16,52 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="6">
   <si>
     <t xml:space="preserve">java -jar FragileMirrorsVis.jar -exec FragileMirrors.exe -seed </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-novis &gt;&gt; out.txt</t>
-  </si>
-  <si>
-    <t>Score  = 0.6492537313432836</t>
-  </si>
-  <si>
-    <t>Score  = 0.6727272727272727</t>
-  </si>
-  <si>
-    <t>Score  = 0.6699029126213593</t>
-  </si>
-  <si>
-    <t>Score  = 0.6782608695652174</t>
-  </si>
-  <si>
-    <t>Score  = 0.6455696202531646</t>
-  </si>
-  <si>
-    <t>Score  = 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>Score  = 0.6607142857142857</t>
-  </si>
-  <si>
-    <t>Score  = 0.6413043478260869</t>
-  </si>
-  <si>
-    <t>Score  = 0.6704545454545454</t>
-  </si>
-  <si>
-    <t>Score  = 0.6910569105691057</t>
-  </si>
-  <si>
-    <t>Score  = 0.7</t>
-  </si>
-  <si>
-    <t>Score  = 0.6944444444444444</t>
-  </si>
-  <si>
-    <t>Score  = 0.6470588235294118</t>
   </si>
   <si>
     <t>#1</t>
@@ -71,251 +32,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Score  = 0.6230769230769231</t>
-  </si>
-  <si>
-    <t>Score  = 0.648936170212766</t>
-  </si>
-  <si>
-    <t>Score  = 0.6410256410256411</t>
-  </si>
-  <si>
-    <t>Score  = 0.7692307692307693</t>
-  </si>
-  <si>
     <t>V1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Score  = 0.5958904109589042</t>
-  </si>
-  <si>
-    <t>Score  = 0.6016260162601627</t>
-  </si>
-  <si>
-    <t>Score  = 0.625</t>
-  </si>
-  <si>
-    <t>Score  = 0.6814814814814815</t>
-  </si>
-  <si>
-    <t>Score  = 0.5859872611464968</t>
-  </si>
-  <si>
-    <t>Score  = 0.6850393700787402</t>
-  </si>
-  <si>
-    <t>Score  = 0.580952380952381</t>
-  </si>
-  <si>
-    <t>Score  = 0.5987654320987654</t>
-  </si>
-  <si>
-    <t>Score  = 0.7088607594936709</t>
-  </si>
-  <si>
-    <t>Score  = 0.6074766355140186</t>
-  </si>
-  <si>
-    <t>Score  = 0.6526315789473685</t>
-  </si>
-  <si>
-    <t>Score  = 0.723404255319149</t>
-  </si>
-  <si>
-    <t>Score  = 0.6494845360824743</t>
-  </si>
-  <si>
-    <t>Score  = 0.5632911392405063</t>
-  </si>
-  <si>
-    <t>Score  = 0.6938775510204082</t>
-  </si>
-  <si>
-    <t>Score  = 0.646551724137931</t>
-  </si>
-  <si>
-    <t>Score  = 0.6183206106870229</t>
-  </si>
-  <si>
-    <t>Score  = 0.5944055944055944</t>
-  </si>
-  <si>
-    <t>Score  = 0.5983606557377049</t>
-  </si>
-  <si>
-    <t>Score  = 0.6582278481012658</t>
-  </si>
-  <si>
-    <t>Score  = 0.5448275862068965</t>
-  </si>
-  <si>
-    <t>Score  = 0.6071428571428571</t>
-  </si>
-  <si>
-    <t>Score  = 0.6371681415929203</t>
-  </si>
-  <si>
-    <t>Score  = 0.6263736263736264</t>
-  </si>
-  <si>
-    <t>Score  = 0.6277372262773723</t>
-  </si>
-  <si>
-    <t>Score  = 0.5833333333333334</t>
-  </si>
-  <si>
-    <t>Score  = 0.5826086956521739</t>
-  </si>
-  <si>
-    <t>Score  = 0.676923076923077</t>
-  </si>
-  <si>
-    <t>Score  = 0.680327868852459</t>
-  </si>
-  <si>
-    <t>Score  = 0.7446808510638298</t>
-  </si>
-  <si>
-    <t>Score  = 0.5688622754491018</t>
-  </si>
-  <si>
-    <t>Score  = 0.5963855421686747</t>
-  </si>
-  <si>
-    <t>Score  = 0.6268656716417911</t>
-  </si>
-  <si>
-    <t>Score  = 0.656934306569343</t>
-  </si>
-  <si>
-    <t>Score  = 0.6381578947368421</t>
-  </si>
-  <si>
-    <t>Score  = 0.58</t>
-  </si>
-  <si>
-    <t>Score  = 0.5630252100840336</t>
-  </si>
-  <si>
-    <t>Score  = 0.7123287671232876</t>
-  </si>
-  <si>
-    <t>Score  = 0.56875</t>
-  </si>
-  <si>
-    <t>Score  = 0.6022727272727273</t>
-  </si>
-  <si>
-    <t>Score  = 0.6434782608695652</t>
-  </si>
-  <si>
-    <t>Score  = 0.632258064516129</t>
-  </si>
-  <si>
-    <t>Score  = 0.6153846153846154</t>
-  </si>
-  <si>
-    <t>Score  = 0.6305732484076433</t>
-  </si>
-  <si>
-    <t>Score  = 0.6623376623376623</t>
-  </si>
-  <si>
-    <t>Score  = 0.6111111111111112</t>
-  </si>
-  <si>
-    <t>Score  = 0.6312056737588653</t>
-  </si>
-  <si>
-    <t>Score  = 0.6115702479338843</t>
-  </si>
-  <si>
-    <t>Score  = 0.6419753086419753</t>
-  </si>
-  <si>
-    <t>Score  = 0.6583333333333333</t>
-  </si>
-  <si>
-    <t>Score  = 0.6608695652173913</t>
-  </si>
-  <si>
-    <t>Score  = 0.5447761194029851</t>
-  </si>
-  <si>
-    <t>Score  = 0.6276595744680851</t>
-  </si>
-  <si>
-    <t>Score  = 0.6413793103448275</t>
-  </si>
-  <si>
-    <t>Score  = 0.6385542168674698</t>
-  </si>
-  <si>
-    <t>Score  = 0.6020408163265306</t>
-  </si>
-  <si>
-    <t>Score  = 0.5882352941176471</t>
-  </si>
-  <si>
-    <t>Score  = 0.6204379562043796</t>
-  </si>
-  <si>
-    <t>Score  = 0.6172839506172839</t>
-  </si>
-  <si>
-    <t>Score  = 0.59375</t>
-  </si>
-  <si>
-    <t>Score  = 0.6298701298701299</t>
-  </si>
-  <si>
-    <t>Score  = 0.6274509803921569</t>
-  </si>
-  <si>
-    <t>Score  = 0.6805555555555556</t>
-  </si>
-  <si>
-    <t>Score  = 0.6730769230769231</t>
-  </si>
-  <si>
-    <t>Score  = 0.6756756756756757</t>
-  </si>
-  <si>
-    <t>Score  = 0.7631578947368421</t>
-  </si>
-  <si>
-    <t>Score  = 0.5700934579439252</t>
-  </si>
-  <si>
-    <t>Score  = 0.559748427672956</t>
-  </si>
-  <si>
-    <t>Score  = 0.5877862595419847</t>
-  </si>
-  <si>
-    <t>Score  = 0.6290322580645161</t>
-  </si>
-  <si>
-    <t>Score  = 0.6226415094339622</t>
-  </si>
-  <si>
-    <t>Score  = 0.6330275229357798</t>
-  </si>
-  <si>
-    <t>Score  = 0.6086956521739131</t>
-  </si>
-  <si>
-    <t>Score  = 0.6224489795918368</t>
-  </si>
-  <si>
-    <t>Score  = 0.725</t>
-  </si>
-  <si>
-    <t>Score  = 0.6179775280898876</t>
-  </si>
-  <si>
-    <t>Score  = 0.564935064935065</t>
+    <t>V2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1787,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="B1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1799,24 +1521,24 @@
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="e">
         <f>VALUE(MID(A2,10,5))</f>
-        <v>0.64500000000000002</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C2">
         <v>0.68899999999999995</v>
@@ -1824,18 +1546,15 @@
       <c r="D2">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f>(D2-B2)/D2</f>
-        <v>6.3860667634252438E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:D66" si="0">VALUE(MID(A3,10,5))</f>
-        <v>0.67200000000000004</v>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="e">
+        <f t="shared" ref="B3:B66" si="0">VALUE(MID(A3,10,5))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C3">
         <v>0.69099999999999995</v>
@@ -1843,18 +1562,15 @@
       <c r="D3">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f t="shared" ref="E3:E66" si="1">(D3-B3)/D3</f>
-        <v>7.3103448275861987E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.59499999999999997</v>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C4">
         <v>0.64900000000000002</v>
@@ -1862,18 +1578,15 @@
       <c r="D4">
         <v>0.63</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>5.5555555555555601E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.60099999999999998</v>
+      <c r="E4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C5">
         <v>0.67200000000000004</v>
@@ -1881,18 +1594,15 @@
       <c r="D5">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.17896174863387979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
+      <c r="E5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C6">
         <v>0.64300000000000002</v>
@@ -1900,18 +1610,15 @@
       <c r="D6">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>6.5769805680119642E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.68100000000000005</v>
+      <c r="E6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C7">
         <v>0.70199999999999996</v>
@@ -1919,18 +1626,15 @@
       <c r="D7">
         <v>0.71299999999999997</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>4.4880785413744628E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.58499999999999996</v>
+      <c r="E7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C8">
         <v>0.69099999999999995</v>
@@ -1938,18 +1642,15 @@
       <c r="D8">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.12162162162162173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.68500000000000005</v>
+      <c r="E8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C9">
         <v>0.64400000000000002</v>
@@ -1957,18 +1658,15 @@
       <c r="D9">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-2.3916292974588957E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.623</v>
+      <c r="E9" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C10">
         <v>0.69799999999999995</v>
@@ -1976,18 +1674,15 @@
       <c r="D10">
         <v>0.68</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>8.3823529411764769E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.66900000000000004</v>
+      <c r="E10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C11">
         <v>0.66900000000000004</v>
@@ -1995,18 +1690,15 @@
       <c r="D11">
         <v>0.64400000000000002</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-3.8819875776397547E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+      <c r="E11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C12">
         <v>0.63500000000000001</v>
@@ -2014,18 +1706,15 @@
       <c r="D12">
         <v>0.63500000000000001</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>8.6614173228346539E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.59799999999999998</v>
+      <c r="E12" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C13">
         <v>0.58399999999999996</v>
@@ -2033,18 +1722,15 @@
       <c r="D13">
         <v>0.61299999999999999</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>2.4469820554649288E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.70799999999999996</v>
+      <c r="E13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C14">
         <v>0.73599999999999999</v>
@@ -2052,18 +1738,15 @@
       <c r="D14">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>8.8803088803088875E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.60699999999999998</v>
+      <c r="E14" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C15">
         <v>0.66300000000000003</v>
@@ -2071,18 +1754,15 @@
       <c r="D15">
         <v>0.65600000000000003</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>7.4695121951219579E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.65200000000000002</v>
+      <c r="E15" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C16">
         <v>0.69599999999999995</v>
@@ -2090,18 +1770,15 @@
       <c r="D16">
         <v>0.71199999999999997</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>8.4269662921348243E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.72299999999999998</v>
+      <c r="E16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C17">
         <v>0.73099999999999998</v>
@@ -2109,18 +1786,15 @@
       <c r="D17">
         <v>0.71499999999999997</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-1.1188811188811199E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.64900000000000002</v>
+      <c r="E17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C18">
         <v>0.67700000000000005</v>
@@ -2128,18 +1802,15 @@
       <c r="D18">
         <v>0.67</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>3.1343283582089577E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.56299999999999994</v>
+      <c r="E18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C19">
         <v>0.59699999999999998</v>
@@ -2147,18 +1818,15 @@
       <c r="D19">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>5.0590219224283355E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.69299999999999995</v>
+      <c r="E19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C20">
         <v>0.65300000000000002</v>
@@ -2166,18 +1834,15 @@
       <c r="D20">
         <v>0.68600000000000005</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>-1.0204081632652908E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.76900000000000002</v>
+      <c r="E20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C21">
         <v>0.75</v>
@@ -2185,18 +1850,15 @@
       <c r="D21">
         <v>0.68100000000000005</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-0.12922173274596177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.67800000000000005</v>
+      <c r="E21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C22">
         <v>0.67800000000000005</v>
@@ -2204,18 +1866,15 @@
       <c r="D22">
         <v>0.73499999999999999</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>7.7551020408163182E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0.64600000000000002</v>
+      <c r="E22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C23">
         <v>0.66900000000000004</v>
@@ -2223,18 +1882,15 @@
       <c r="D23">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>3.4379671150971625E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0.61799999999999999</v>
+      <c r="E23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C24">
         <v>0.63700000000000001</v>
@@ -2242,18 +1898,15 @@
       <c r="D24">
         <v>0.623</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>8.0256821829855617E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>0.59399999999999997</v>
+      <c r="E24" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C25">
         <v>0.68500000000000005</v>
@@ -2261,18 +1914,15 @@
       <c r="D25">
         <v>0.629</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>5.5643879173290986E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0.59799999999999998</v>
+      <c r="E25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C26">
         <v>0.61799999999999999</v>
@@ -2280,18 +1930,15 @@
       <c r="D26">
         <v>0.67500000000000004</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.11407407407407416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0.65800000000000003</v>
+      <c r="E26" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C27">
         <v>0.70199999999999996</v>
@@ -2299,18 +1946,15 @@
       <c r="D27">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0.10109289617486333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0.69399999999999995</v>
+      <c r="E27" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C28">
         <v>0.79300000000000004</v>
@@ -2318,18 +1962,15 @@
       <c r="D28">
         <v>0.69399999999999995</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0.54400000000000004</v>
+      <c r="E28" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C29">
         <v>0.622</v>
@@ -2337,18 +1978,15 @@
       <c r="D29">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.11111111111111104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0.60699999999999998</v>
+      <c r="E29" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C30">
         <v>0.64500000000000002</v>
@@ -2356,18 +1994,15 @@
       <c r="D30">
         <v>0.68</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0.10735294117647068</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>0.63700000000000001</v>
+      <c r="E30" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C31">
         <v>0.66600000000000004</v>
@@ -2375,18 +2010,15 @@
       <c r="D31">
         <v>0.68500000000000005</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>7.0072992700729989E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0.626</v>
+      <c r="E31" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C32">
         <v>0.66200000000000003</v>
@@ -2394,18 +2026,15 @@
       <c r="D32">
         <v>0.67</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>6.567164179104483E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>0.627</v>
+      <c r="E32" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C33">
         <v>0.71599999999999997</v>
@@ -2413,18 +2042,15 @@
       <c r="D33">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0.13157894736842102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>0.58299999999999996</v>
+      <c r="E33" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C34">
         <v>0.66600000000000004</v>
@@ -2432,18 +2058,15 @@
       <c r="D34">
         <v>0.65100000000000002</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0.10445468509984648</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>0.58199999999999996</v>
+      <c r="E34" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C35">
         <v>0.65</v>
@@ -2451,18 +2074,15 @@
       <c r="D35">
         <v>0.64400000000000002</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>9.6273291925465923E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>0.67600000000000005</v>
+      <c r="E35" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C36">
         <v>0.76500000000000001</v>
@@ -2470,18 +2090,15 @@
       <c r="D36">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1.6011644832605545E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>0.68</v>
+      <c r="E36" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C37">
         <v>0.64800000000000002</v>
@@ -2489,18 +2106,15 @@
       <c r="D37">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>-8.9020771513353188E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>0.74399999999999999</v>
+      <c r="E37" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C38">
         <v>0.752</v>
@@ -2508,18 +2122,15 @@
       <c r="D38">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>4.2471042471042504E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>0.56799999999999995</v>
+      <c r="E38" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C39">
         <v>0.68300000000000005</v>
@@ -2527,18 +2138,15 @@
       <c r="D39">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0.14457831325301218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>0.59599999999999997</v>
+      <c r="E39" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C40">
         <v>0.64200000000000002</v>
@@ -2546,18 +2154,15 @@
       <c r="D40">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>5.9936908517350208E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>0.626</v>
+      <c r="E40" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C41">
         <v>0.73599999999999999</v>
@@ -2565,18 +2170,15 @@
       <c r="D41">
         <v>0.77</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0.18701298701298702</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>0.65600000000000003</v>
+      <c r="E41" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C42">
         <v>0.69699999999999995</v>
@@ -2584,18 +2186,15 @@
       <c r="D42">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>4.5123726346433808E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>0.63800000000000001</v>
+      <c r="E42" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C43">
         <v>0.65900000000000003</v>
@@ -2603,18 +2202,15 @@
       <c r="D43">
         <v>0.59099999999999997</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>-7.9526226734348643E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+      <c r="E43" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C44">
         <v>0.70699999999999996</v>
@@ -2622,18 +2218,15 @@
       <c r="D44">
         <v>0.68200000000000005</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0.1495601173020529</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>0.56299999999999994</v>
+      <c r="E44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C45">
         <v>0.626</v>
@@ -2641,18 +2234,15 @@
       <c r="D45">
         <v>0.67</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0.15970149253731356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>0.71199999999999997</v>
+      <c r="E45" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C46">
         <v>0.74199999999999999</v>
@@ -2660,18 +2250,15 @@
       <c r="D46">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>2.7322404371584723E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>0.56799999999999995</v>
+      <c r="E46" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C47">
         <v>0.67400000000000004</v>
@@ -2679,18 +2266,15 @@
       <c r="D47">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0.14457831325301218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>0.60199999999999998</v>
+      <c r="E47" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C48">
         <v>0.71599999999999997</v>
@@ -2698,18 +2282,15 @@
       <c r="D48">
         <v>0.69699999999999995</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0.13629842180774746</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>0.64300000000000002</v>
+      <c r="E48" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C49">
         <v>0.66</v>
@@ -2717,18 +2298,15 @@
       <c r="D49">
         <v>0.755</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0.14834437086092714</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>0.63200000000000001</v>
+      <c r="E49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C50">
         <v>0.73099999999999998</v>
@@ -2736,18 +2314,15 @@
       <c r="D50">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>9.0647482014388422E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>0.66600000000000004</v>
+      <c r="E50" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C51">
         <v>0.67100000000000004</v>
@@ -2755,18 +2330,15 @@
       <c r="D51">
         <v>0.70499999999999996</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>5.5319148936170105E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>0.61499999999999999</v>
+      <c r="E51" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C52">
         <v>0.746</v>
@@ -2774,18 +2346,15 @@
       <c r="D52">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>7.6576576576576641E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>0.63</v>
+      <c r="E52" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C53">
         <v>0.61799999999999999</v>
@@ -2793,18 +2362,15 @@
       <c r="D53">
         <v>0.61399999999999999</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>-2.6058631921824126E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>0.66200000000000003</v>
+      <c r="E53" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C54">
         <v>0.68899999999999995</v>
@@ -2812,18 +2378,15 @@
       <c r="D54">
         <v>0.67100000000000004</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>1.3412816691505227E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>0.61099999999999999</v>
+      <c r="E54" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C55">
         <v>0.66200000000000003</v>
@@ -2831,18 +2394,15 @@
       <c r="D55">
         <v>0.72299999999999998</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>0.15491009681881049</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>0.64700000000000002</v>
+      <c r="E55" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C56">
         <v>0.74099999999999999</v>
@@ -2850,18 +2410,15 @@
       <c r="D56">
         <v>0.75</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>0.13733333333333331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>0.66</v>
+      <c r="E56" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C57">
         <v>0.65400000000000003</v>
@@ -2869,18 +2426,15 @@
       <c r="D57">
         <v>0.74</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0.10810810810810806</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>0.64100000000000001</v>
+      <c r="E57" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C58">
         <v>0.68400000000000005</v>
@@ -2888,18 +2442,15 @@
       <c r="D58">
         <v>0.746</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0.14075067024128685</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>0.66200000000000003</v>
+      <c r="E58" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C59">
         <v>0.64500000000000002</v>
@@ -2907,18 +2458,15 @@
       <c r="D59">
         <v>0.64500000000000002</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>-2.6356589147286846E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>0.63100000000000001</v>
+      <c r="E59" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C60">
         <v>0.65400000000000003</v>
@@ -2926,18 +2474,15 @@
       <c r="D60">
         <v>0.626</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>-7.9872204472843517E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>0.61099999999999999</v>
+      <c r="E60" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C61">
         <v>0.66600000000000004</v>
@@ -2945,18 +2490,15 @@
       <c r="D61">
         <v>0.70399999999999996</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0.13210227272727271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>0.64100000000000001</v>
+      <c r="E61" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C62">
         <v>0.74199999999999999</v>
@@ -2964,18 +2506,15 @@
       <c r="D62">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0.21059113300492616</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>0.65800000000000003</v>
+      <c r="E62" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C63">
         <v>0.66300000000000003</v>
@@ -2983,18 +2522,15 @@
       <c r="D63">
         <v>0.67500000000000004</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>2.5185185185185206E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>0.66</v>
+      <c r="E63" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C64">
         <v>0.68400000000000005</v>
@@ -3002,18 +2538,15 @@
       <c r="D64">
         <v>0.70299999999999996</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>6.116642958748212E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>0.64900000000000002</v>
+      <c r="E64" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C65">
         <v>0.63500000000000001</v>
@@ -3021,18 +2554,15 @@
       <c r="D65">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>2.259036144578315E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>0.54400000000000004</v>
+      <c r="E65" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C66">
         <v>0.61299999999999999</v>
@@ -3040,18 +2570,15 @@
       <c r="D66">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0.18684603886397608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:D101" si="2">VALUE(MID(A67,10,5))</f>
-        <v>0.627</v>
+      <c r="E66" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" t="e">
+        <f t="shared" ref="B67:B101" si="2">VALUE(MID(A67,10,5))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C67">
         <v>0.70199999999999996</v>
@@ -3059,18 +2586,15 @@
       <c r="D67">
         <v>0.68600000000000005</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="e">
         <f t="shared" ref="E67:E101" si="3">(D67-B67)/D67</f>
-        <v>8.6005830903790159E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="2"/>
-        <v>0.64100000000000001</v>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C68">
         <v>0.66400000000000003</v>
@@ -3078,18 +2602,15 @@
       <c r="D68">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="3"/>
-        <v>3.4638554216867498E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="2"/>
-        <v>0.63800000000000001</v>
+      <c r="E68" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C69">
         <v>0.67</v>
@@ -3097,18 +2618,15 @@
       <c r="D69">
         <v>0.73599999999999999</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
-        <v>0.13315217391304346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+      <c r="E69" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C70">
         <v>0.60299999999999998</v>
@@ -3116,18 +2634,15 @@
       <c r="D70">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="3"/>
-        <v>0.10493827160493836</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="2"/>
-        <v>0.61099999999999999</v>
+      <c r="E70" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C71">
         <v>0.69799999999999995</v>
@@ -3135,18 +2650,15 @@
       <c r="D71">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
-        <v>0.24846248462484621</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="2"/>
-        <v>0.60199999999999998</v>
+      <c r="E71" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C72">
         <v>0.64100000000000001</v>
@@ -3154,18 +2666,15 @@
       <c r="D72">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="3"/>
-        <v>0.11209439528023608</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="2"/>
-        <v>0.67</v>
+      <c r="E72" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C73">
         <v>0.67</v>
@@ -3173,18 +2682,15 @@
       <c r="D73">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="3"/>
-        <v>-2.2900763358778647E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="2"/>
-        <v>0.58799999999999997</v>
+      <c r="E73" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B74" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C74">
         <v>0.73599999999999999</v>
@@ -3192,18 +2698,15 @@
       <c r="D74">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
-        <v>0.27675276752767525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="2"/>
-        <v>0.62</v>
+      <c r="E74" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B75" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C75">
         <v>0.65300000000000002</v>
@@ -3211,18 +2714,15 @@
       <c r="D75">
         <v>0.629</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="3"/>
-        <v>1.4308426073131968E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="2"/>
-        <v>0.61699999999999999</v>
+      <c r="E75" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B76" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C76">
         <v>0.72399999999999998</v>
@@ -3230,18 +2730,15 @@
       <c r="D76">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="3"/>
-        <v>3.7441497659906425E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="2"/>
-        <v>0.64100000000000001</v>
+      <c r="E76" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B77" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C77">
         <v>0.72799999999999998</v>
@@ -3249,18 +2746,15 @@
       <c r="D77">
         <v>0.71899999999999997</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="3"/>
-        <v>0.10848400556328228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="2"/>
-        <v>0.59299999999999997</v>
+      <c r="E77" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C78">
         <v>0.66200000000000003</v>
@@ -3268,18 +2762,15 @@
       <c r="D78">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="3"/>
-        <v>9.4656488549618403E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="2"/>
-        <v>0.629</v>
+      <c r="E78" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B79" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C79">
         <v>0.61699999999999999</v>
@@ -3287,18 +2778,15 @@
       <c r="D79">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="3"/>
-        <v>6.3191153238546655E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="2"/>
-        <v>0.627</v>
+      <c r="E79" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B80" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C80">
         <v>0.72699999999999998</v>
@@ -3306,18 +2794,15 @@
       <c r="D80">
         <v>0.82</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="3"/>
-        <v>0.23536585365853654</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="2"/>
-        <v>0.68</v>
+      <c r="E80" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C81">
         <v>0.69</v>
@@ -3325,18 +2810,15 @@
       <c r="D81">
         <v>0.748</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090842E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="2"/>
-        <v>0.67300000000000004</v>
+      <c r="E81" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C82">
         <v>0.69299999999999995</v>
@@ -3344,18 +2826,15 @@
       <c r="D82">
         <v>0.76900000000000002</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="3"/>
-        <v>0.12483745123537057</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="2"/>
-        <v>0.69099999999999995</v>
+      <c r="E82" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C83">
         <v>0.69099999999999995</v>
@@ -3363,18 +2842,15 @@
       <c r="D83">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="3"/>
-        <v>-2.5222551928783237E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
+      <c r="E83" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C84">
         <v>0.78100000000000003</v>
@@ -3382,18 +2858,15 @@
       <c r="D84">
         <v>0.76900000000000002</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="3"/>
-        <v>0.12223667100130035</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
+      <c r="E84" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C85">
         <v>0.64200000000000002</v>
@@ -3401,18 +2874,15 @@
       <c r="D85">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="3"/>
-        <v>-0.13452188006482976</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="2"/>
-        <v>0.58799999999999997</v>
+      <c r="E85" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C86">
         <v>0.65</v>
@@ -3420,18 +2890,15 @@
       <c r="D86">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="3"/>
-        <v>2.9702970297029729E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="2"/>
-        <v>0.76300000000000001</v>
+      <c r="E86" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C87">
         <v>0.67400000000000004</v>
@@ -3439,18 +2906,15 @@
       <c r="D87">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="3"/>
-        <v>1.293661060802071E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="2"/>
-        <v>0.56999999999999995</v>
+      <c r="E87" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C88">
         <v>0.72599999999999998</v>
@@ -3458,18 +2922,15 @@
       <c r="D88">
         <v>0.67</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="3"/>
-        <v>0.14925373134328371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="2"/>
-        <v>0.55900000000000005</v>
+      <c r="E88" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C89">
         <v>0.59699999999999998</v>
@@ -3477,18 +2938,15 @@
       <c r="D89">
         <v>0.61799999999999999</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="3"/>
-        <v>9.5469255663430327E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="2"/>
-        <v>0.58699999999999997</v>
+      <c r="E89" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C90">
         <v>0.69299999999999995</v>
@@ -3496,18 +2954,15 @@
       <c r="D90">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="3"/>
-        <v>0.14556040756914132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="2"/>
-        <v>0.629</v>
+      <c r="E90" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C91">
         <v>0.64400000000000002</v>
@@ -3515,18 +2970,15 @@
       <c r="D91">
         <v>0.65</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="3"/>
-        <v>3.2307692307692336E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="2"/>
-        <v>0.66600000000000004</v>
+      <c r="E91" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C92">
         <v>0.72099999999999997</v>
@@ -3534,18 +2986,15 @@
       <c r="D92">
         <v>0.68500000000000005</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="3"/>
-        <v>2.7737226277372285E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="2"/>
-        <v>0.622</v>
+      <c r="E92" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C93">
         <v>0.66400000000000003</v>
@@ -3553,18 +3002,15 @@
       <c r="D93">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="3"/>
-        <v>1.8927444794952699E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>18</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="2"/>
-        <v>0.64800000000000002</v>
+      <c r="E93" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C94">
         <v>0.69299999999999995</v>
@@ -3572,18 +3018,15 @@
       <c r="D94">
         <v>0.71699999999999997</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="3"/>
-        <v>9.6234309623430894E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="2"/>
-        <v>0.63300000000000001</v>
+      <c r="E94" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B95" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C95">
         <v>0.68300000000000005</v>
@@ -3591,18 +3034,15 @@
       <c r="D95">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="3"/>
-        <v>7.3206442166910746E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="2"/>
-        <v>0.60799999999999998</v>
+      <c r="E95" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B96" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C96">
         <v>0.7</v>
@@ -3610,18 +3050,15 @@
       <c r="D96">
         <v>0.69</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0.11884057971014488</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="2"/>
-        <v>0.69399999999999995</v>
+      <c r="E96" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B97" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C97">
         <v>0.69399999999999995</v>
@@ -3629,18 +3066,15 @@
       <c r="D97">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="3"/>
-        <v>4.6703296703296746E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="2"/>
-        <v>0.622</v>
+      <c r="E97" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B98" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C98">
         <v>0.67</v>
@@ -3648,18 +3082,15 @@
       <c r="D98">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="3"/>
-        <v>4.0123456790123489E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="2"/>
-        <v>0.72499999999999998</v>
+      <c r="E98" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B99" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C99">
         <v>0.74299999999999999</v>
@@ -3667,18 +3098,15 @@
       <c r="D99">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="3"/>
-        <v>-2.5459688826025485E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="2"/>
-        <v>0.61699999999999999</v>
+      <c r="E99" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B100" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C100">
         <v>0.64700000000000002</v>
@@ -3686,18 +3114,15 @@
       <c r="D100">
         <v>0.64700000000000002</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="3"/>
-        <v>4.6367851622874844E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="2"/>
-        <v>0.56399999999999995</v>
+      <c r="E100" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C101">
         <v>0.64900000000000002</v>
@@ -3705,9 +3130,9 @@
       <c r="D101">
         <v>0.73099999999999998</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="3"/>
-        <v>0.22845417236662113</v>
+      <c r="E101" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/MARATHON_80/test.xlsx
+++ b/MARATHON_80/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="100">
   <si>
     <t xml:space="preserve">java -jar FragileMirrorsVis.jar -exec FragileMirrors.exe -seed </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,288 @@
   <si>
     <t>V2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score  = 0.8505747126436781</t>
+  </si>
+  <si>
+    <t>Score  = 0.7264957264957265</t>
+  </si>
+  <si>
+    <t>Score  = 0.8598130841121495</t>
+  </si>
+  <si>
+    <t>Score  = 0.7297297297297297</t>
+  </si>
+  <si>
+    <t>Score  = 0.7363636363636363</t>
+  </si>
+  <si>
+    <t>Score  = 0.708029197080292</t>
+  </si>
+  <si>
+    <t>Score  = 0.7391304347826086</t>
+  </si>
+  <si>
+    <t>Score  = 0.7846153846153846</t>
+  </si>
+  <si>
+    <t>Score  = 0.8433734939759037</t>
+  </si>
+  <si>
+    <t>Score  = 0.796875</t>
+  </si>
+  <si>
+    <t>Score  = 1.0</t>
+  </si>
+  <si>
+    <t>Score  = 0.75</t>
+  </si>
+  <si>
+    <t>Score  = 0.9024390243902439</t>
+  </si>
+  <si>
+    <t>Score  = 0.7657657657657657</t>
+  </si>
+  <si>
+    <t>Score  = 0.8</t>
+  </si>
+  <si>
+    <t>Score  = 0.7016129032258065</t>
+  </si>
+  <si>
+    <t>Score  = 0.7419354838709677</t>
+  </si>
+  <si>
+    <t>Score  = 0.7093023255813954</t>
+  </si>
+  <si>
+    <t>Score  = 0.7461538461538462</t>
+  </si>
+  <si>
+    <t>Score  = 0.8235294117647058</t>
+  </si>
+  <si>
+    <t>Score  = 0.7386363636363636</t>
+  </si>
+  <si>
+    <t>Score  = 0.8378378378378378</t>
+  </si>
+  <si>
+    <t>Score  = 0.9066666666666666</t>
+  </si>
+  <si>
+    <t>Score  = 0.7325581395348837</t>
+  </si>
+  <si>
+    <t>Score  = 0.6953125</t>
+  </si>
+  <si>
+    <t>Score  = 0.8292682926829268</t>
+  </si>
+  <si>
+    <t>Score  = 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>Score  = 0.8125</t>
+  </si>
+  <si>
+    <t>Score  = 0.7281553398058253</t>
+  </si>
+  <si>
+    <t>Score  = 0.73</t>
+  </si>
+  <si>
+    <t>Score  = 0.7452830188679245</t>
+  </si>
+  <si>
+    <t>Score  = 0.7727272727272727</t>
+  </si>
+  <si>
+    <t>Score  = 0.782608695652174</t>
+  </si>
+  <si>
+    <t>Score  = 0.7037037037037037</t>
+  </si>
+  <si>
+    <t>Score  = 0.7962962962962963</t>
+  </si>
+  <si>
+    <t>Score  = 0.7433628318584071</t>
+  </si>
+  <si>
+    <t>Score  = 0.7362637362637363</t>
+  </si>
+  <si>
+    <t>Score  = 0.8148148148148148</t>
+  </si>
+  <si>
+    <t>Score  = 0.7410714285714286</t>
+  </si>
+  <si>
+    <t>Score  = 0.8536585365853658</t>
+  </si>
+  <si>
+    <t>Score  = 0.717391304347826</t>
+  </si>
+  <si>
+    <t>Score  = 0.7924528301886793</t>
+  </si>
+  <si>
+    <t>Score  = 0.8181818181818182</t>
+  </si>
+  <si>
+    <t>Score  = 0.7404580152671756</t>
+  </si>
+  <si>
+    <t>Score  = 0.8656716417910447</t>
+  </si>
+  <si>
+    <t>Score  = 0.7052631578947368</t>
+  </si>
+  <si>
+    <t>Score  = 0.8813559322033898</t>
+  </si>
+  <si>
+    <t>Score  = 0.6691176470588235</t>
+  </si>
+  <si>
+    <t>Score  = 0.7794117647058824</t>
+  </si>
+  <si>
+    <t>Score  = 0.8222222222222222</t>
+  </si>
+  <si>
+    <t>Score  = 0.7368421052631579</t>
+  </si>
+  <si>
+    <t>Score  = 0.725925925925926</t>
+  </si>
+  <si>
+    <t>Score  = 0.7777777777777778</t>
+  </si>
+  <si>
+    <t>Score  = 0.6971830985915493</t>
+  </si>
+  <si>
+    <t>Score  = 0.7746478873239436</t>
+  </si>
+  <si>
+    <t>Score  = 0.7764705882352941</t>
+  </si>
+  <si>
+    <t>Score  = 0.7611940298507462</t>
+  </si>
+  <si>
+    <t>Score  = 0.7355371900826446</t>
+  </si>
+  <si>
+    <t>Score  = 0.7708333333333334</t>
+  </si>
+  <si>
+    <t>Score  = 0.9285714285714286</t>
+  </si>
+  <si>
+    <t>Score  = 0.7181818181818181</t>
+  </si>
+  <si>
+    <t>Score  = 0.7755102040816326</t>
+  </si>
+  <si>
+    <t>Score  = 0.7699115044247787</t>
+  </si>
+  <si>
+    <t>Score  = 0.7525773195876289</t>
+  </si>
+  <si>
+    <t>Score  = 0.7972972972972973</t>
+  </si>
+  <si>
+    <t>Score  = 0.6940298507462687</t>
+  </si>
+  <si>
+    <t>Score  = 0.7571428571428571</t>
+  </si>
+  <si>
+    <t>Score  = 0.7011494252873564</t>
+  </si>
+  <si>
+    <t>Score  = 0.7468354430379747</t>
+  </si>
+  <si>
+    <t>Score  = 0.7375</t>
+  </si>
+  <si>
+    <t>Score  = 0.704225352112676</t>
+  </si>
+  <si>
+    <t>Score  = 0.7283950617283951</t>
+  </si>
+  <si>
+    <t>Score  = 0.7808219178082192</t>
+  </si>
+  <si>
+    <t>Score  = 1.0491803278688525</t>
+  </si>
+  <si>
+    <t>Score  = 0.7903225806451613</t>
+  </si>
+  <si>
+    <t>Score  = 0.8860759493670886</t>
+  </si>
+  <si>
+    <t>Score  = 0.7456140350877193</t>
+  </si>
+  <si>
+    <t>Score  = 0.9259259259259259</t>
+  </si>
+  <si>
+    <t>Score  = 0.7079646017699115</t>
+  </si>
+  <si>
+    <t>Score  = 0.9354838709677419</t>
+  </si>
+  <si>
+    <t>Score  = 0.7349397590361446</t>
+  </si>
+  <si>
+    <t>Score  = 0.717741935483871</t>
+  </si>
+  <si>
+    <t>Score  = 0.7623762376237624</t>
+  </si>
+  <si>
+    <t>Score  = 0.7878787878787878</t>
+  </si>
+  <si>
+    <t>Score  = 0.8807339449541285</t>
+  </si>
+  <si>
+    <t>Score  = 0.6644295302013423</t>
+  </si>
+  <si>
+    <t>Score  = 0.782051282051282</t>
+  </si>
+  <si>
+    <t>Score  = 0.7040816326530612</t>
+  </si>
+  <si>
+    <t>Score  = 0.784</t>
+  </si>
+  <si>
+    <t>Score  = 0.7352941176470589</t>
+  </si>
+  <si>
+    <t>Score  = 0.7439024390243902</t>
+  </si>
+  <si>
+    <t>Score  = 0.90625</t>
+  </si>
+  <si>
+    <t>Score  = 0.7432432432432432</t>
+  </si>
+  <si>
+    <t>Score  = 0.6692307692307692</t>
   </si>
 </sst>
 </file>
@@ -1509,19 +1791,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -1535,10 +1817,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="e">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <f>VALUE(MID(A2,10,5))</f>
-        <v>#VALUE!</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="C2">
         <v>0.68899999999999995</v>
@@ -1546,15 +1831,17 @@
       <c r="D2">
         <v>0.68899999999999995</v>
       </c>
-      <c r="E2" t="e">
-        <f>(D2-B2)/D2</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="e">
+      <c r="E2">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <f t="shared" ref="B3:B66" si="0">VALUE(MID(A3,10,5))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.69099999999999995</v>
@@ -1562,15 +1849,17 @@
       <c r="D3">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E3" t="e">
-        <f t="shared" ref="E3:E66" si="1">(D3-B3)/D3</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="C4">
         <v>0.64900000000000002</v>
@@ -1578,15 +1867,17 @@
       <c r="D4">
         <v>0.63</v>
       </c>
-      <c r="E4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C5">
         <v>0.67200000000000004</v>
@@ -1594,15 +1885,17 @@
       <c r="D5">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E5">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.76500000000000001</v>
       </c>
       <c r="C6">
         <v>0.64300000000000002</v>
@@ -1610,15 +1903,17 @@
       <c r="D6">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E6">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="C7">
         <v>0.70199999999999996</v>
@@ -1626,15 +1921,17 @@
       <c r="D7">
         <v>0.71299999999999997</v>
       </c>
-      <c r="E7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C8">
         <v>0.69099999999999995</v>
@@ -1642,15 +1939,17 @@
       <c r="D8">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E8">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.70099999999999996</v>
       </c>
       <c r="C9">
         <v>0.64400000000000002</v>
@@ -1658,15 +1957,17 @@
       <c r="D9">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E9" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E9">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.73599999999999999</v>
       </c>
       <c r="C10">
         <v>0.69799999999999995</v>
@@ -1674,15 +1975,17 @@
       <c r="D10">
         <v>0.68</v>
       </c>
-      <c r="E10" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E10">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.74099999999999999</v>
       </c>
       <c r="C11">
         <v>0.66900000000000004</v>
@@ -1690,15 +1993,17 @@
       <c r="D11">
         <v>0.64400000000000002</v>
       </c>
-      <c r="E11" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E11">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.70899999999999996</v>
       </c>
       <c r="C12">
         <v>0.63500000000000001</v>
@@ -1706,15 +2011,17 @@
       <c r="D12">
         <v>0.63500000000000001</v>
       </c>
-      <c r="E12" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E12">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.746</v>
       </c>
       <c r="C13">
         <v>0.58399999999999996</v>
@@ -1722,15 +2029,17 @@
       <c r="D13">
         <v>0.61299999999999999</v>
       </c>
-      <c r="E13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E13">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.82299999999999995</v>
       </c>
       <c r="C14">
         <v>0.73599999999999999</v>
@@ -1738,15 +2047,17 @@
       <c r="D14">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E14" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E14">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C15">
         <v>0.66300000000000003</v>
@@ -1754,15 +2065,17 @@
       <c r="D15">
         <v>0.65600000000000003</v>
       </c>
-      <c r="E15" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E15">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C16">
         <v>0.69599999999999995</v>
@@ -1770,15 +2083,17 @@
       <c r="D16">
         <v>0.71199999999999997</v>
       </c>
-      <c r="E16" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E16">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.90600000000000003</v>
       </c>
       <c r="C17">
         <v>0.73099999999999998</v>
@@ -1786,15 +2101,17 @@
       <c r="D17">
         <v>0.71499999999999997</v>
       </c>
-      <c r="E17" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E17">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.73199999999999998</v>
       </c>
       <c r="C18">
         <v>0.67700000000000005</v>
@@ -1802,15 +2119,17 @@
       <c r="D18">
         <v>0.67</v>
       </c>
-      <c r="E18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E18">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.69499999999999995</v>
       </c>
       <c r="C19">
         <v>0.59699999999999998</v>
@@ -1818,15 +2137,17 @@
       <c r="D19">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E19" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E19">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.82899999999999996</v>
       </c>
       <c r="C20">
         <v>0.65300000000000002</v>
@@ -1834,15 +2155,17 @@
       <c r="D20">
         <v>0.68600000000000005</v>
       </c>
-      <c r="E20" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E20">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.83299999999999996</v>
       </c>
       <c r="C21">
         <v>0.75</v>
@@ -1850,15 +2173,17 @@
       <c r="D21">
         <v>0.68100000000000005</v>
       </c>
-      <c r="E21" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E21">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.81200000000000006</v>
       </c>
       <c r="C22">
         <v>0.67800000000000005</v>
@@ -1866,15 +2191,17 @@
       <c r="D22">
         <v>0.73499999999999999</v>
       </c>
-      <c r="E22" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E22">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C23">
         <v>0.66900000000000004</v>
@@ -1882,15 +2209,17 @@
       <c r="D23">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E23" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E23">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C24">
         <v>0.63700000000000001</v>
@@ -1898,15 +2227,17 @@
       <c r="D24">
         <v>0.623</v>
       </c>
-      <c r="E24" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E24">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C25">
         <v>0.68500000000000005</v>
@@ -1914,15 +2245,17 @@
       <c r="D25">
         <v>0.629</v>
       </c>
-      <c r="E25" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E25">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
       </c>
       <c r="C26">
         <v>0.61799999999999999</v>
@@ -1930,15 +2263,17 @@
       <c r="D26">
         <v>0.67500000000000004</v>
       </c>
-      <c r="E26" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E26">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.81200000000000006</v>
       </c>
       <c r="C27">
         <v>0.70199999999999996</v>
@@ -1946,15 +2281,17 @@
       <c r="D27">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E27" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E27">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0.79300000000000004</v>
@@ -1962,15 +2299,17 @@
       <c r="D28">
         <v>0.69399999999999995</v>
       </c>
-      <c r="E28" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.745</v>
       </c>
       <c r="C29">
         <v>0.622</v>
@@ -1978,15 +2317,17 @@
       <c r="D29">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E29" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E29">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.77200000000000002</v>
       </c>
       <c r="C30">
         <v>0.64500000000000002</v>
@@ -1994,15 +2335,17 @@
       <c r="D30">
         <v>0.68</v>
       </c>
-      <c r="E30" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E30">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C31">
         <v>0.66600000000000004</v>
@@ -2010,15 +2353,17 @@
       <c r="D31">
         <v>0.68500000000000005</v>
       </c>
-      <c r="E31" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E31">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.70299999999999996</v>
       </c>
       <c r="C32">
         <v>0.66200000000000003</v>
@@ -2026,15 +2371,17 @@
       <c r="D32">
         <v>0.67</v>
       </c>
-      <c r="E32" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E32">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.79600000000000004</v>
       </c>
       <c r="C33">
         <v>0.71599999999999997</v>
@@ -2042,15 +2389,17 @@
       <c r="D33">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E33" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E33">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.74299999999999999</v>
       </c>
       <c r="C34">
         <v>0.66600000000000004</v>
@@ -2058,15 +2407,17 @@
       <c r="D34">
         <v>0.65100000000000002</v>
       </c>
-      <c r="E34" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E34">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.73599999999999999</v>
       </c>
       <c r="C35">
         <v>0.65</v>
@@ -2074,15 +2425,17 @@
       <c r="D35">
         <v>0.64400000000000002</v>
       </c>
-      <c r="E35" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E35">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.81399999999999995</v>
       </c>
       <c r="C36">
         <v>0.76500000000000001</v>
@@ -2090,15 +2443,17 @@
       <c r="D36">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E36" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E36">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.74099999999999999</v>
       </c>
       <c r="C37">
         <v>0.64800000000000002</v>
@@ -2106,15 +2461,17 @@
       <c r="D37">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E37" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E37">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C38">
         <v>0.752</v>
@@ -2122,15 +2479,17 @@
       <c r="D38">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E38" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E38">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.70299999999999996</v>
       </c>
       <c r="C39">
         <v>0.68300000000000005</v>
@@ -2138,15 +2497,17 @@
       <c r="D39">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E39" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E39">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.71699999999999997</v>
       </c>
       <c r="C40">
         <v>0.64200000000000002</v>
@@ -2154,15 +2515,17 @@
       <c r="D40">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E40" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E40">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.79200000000000004</v>
       </c>
       <c r="C41">
         <v>0.73599999999999999</v>
@@ -2170,15 +2533,17 @@
       <c r="D41">
         <v>0.77</v>
       </c>
-      <c r="E41" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E41">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.81799999999999995</v>
       </c>
       <c r="C42">
         <v>0.69699999999999995</v>
@@ -2186,15 +2551,17 @@
       <c r="D42">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E42" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E42">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
       </c>
       <c r="C43">
         <v>0.65900000000000003</v>
@@ -2202,15 +2569,17 @@
       <c r="D43">
         <v>0.59099999999999997</v>
       </c>
-      <c r="E43" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E43">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C44">
         <v>0.70699999999999996</v>
@@ -2218,15 +2587,17 @@
       <c r="D44">
         <v>0.68200000000000005</v>
       </c>
-      <c r="E44" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E44">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.70499999999999996</v>
       </c>
       <c r="C45">
         <v>0.626</v>
@@ -2234,15 +2605,17 @@
       <c r="D45">
         <v>0.67</v>
       </c>
-      <c r="E45" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E45">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C46">
         <v>0.74199999999999999</v>
@@ -2250,15 +2623,17 @@
       <c r="D46">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E46" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E46">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.66900000000000004</v>
       </c>
       <c r="C47">
         <v>0.67400000000000004</v>
@@ -2266,15 +2641,17 @@
       <c r="D47">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E47" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E47">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.77900000000000003</v>
       </c>
       <c r="C48">
         <v>0.71599999999999997</v>
@@ -2282,15 +2659,17 @@
       <c r="D48">
         <v>0.69699999999999995</v>
       </c>
-      <c r="E48" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E48">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.82199999999999995</v>
       </c>
       <c r="C49">
         <v>0.66</v>
@@ -2298,15 +2677,17 @@
       <c r="D49">
         <v>0.755</v>
       </c>
-      <c r="E49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E49">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.73599999999999999</v>
       </c>
       <c r="C50">
         <v>0.73099999999999998</v>
@@ -2314,15 +2695,17 @@
       <c r="D50">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E50" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E50">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C51">
         <v>0.67100000000000004</v>
@@ -2330,15 +2713,17 @@
       <c r="D51">
         <v>0.70499999999999996</v>
       </c>
-      <c r="E51" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E51">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.77700000000000002</v>
       </c>
       <c r="C52">
         <v>0.746</v>
@@ -2346,15 +2731,17 @@
       <c r="D52">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E52" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B53" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E52">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.69699999999999995</v>
       </c>
       <c r="C53">
         <v>0.61799999999999999</v>
@@ -2362,15 +2749,17 @@
       <c r="D53">
         <v>0.61399999999999999</v>
       </c>
-      <c r="E53" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E53">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C54">
         <v>0.68899999999999995</v>
@@ -2378,15 +2767,17 @@
       <c r="D54">
         <v>0.67100000000000004</v>
       </c>
-      <c r="E54" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E54">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.77400000000000002</v>
       </c>
       <c r="C55">
         <v>0.66200000000000003</v>
@@ -2394,15 +2785,17 @@
       <c r="D55">
         <v>0.72299999999999998</v>
       </c>
-      <c r="E55" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E55">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.77600000000000002</v>
       </c>
       <c r="C56">
         <v>0.74099999999999999</v>
@@ -2410,15 +2803,17 @@
       <c r="D56">
         <v>0.75</v>
       </c>
-      <c r="E56" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B57" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E56">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
       </c>
       <c r="C57">
         <v>0.65400000000000003</v>
@@ -2426,15 +2821,17 @@
       <c r="D57">
         <v>0.74</v>
       </c>
-      <c r="E57" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E57">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.83299999999999996</v>
       </c>
       <c r="C58">
         <v>0.68400000000000005</v>
@@ -2442,15 +2839,17 @@
       <c r="D58">
         <v>0.746</v>
       </c>
-      <c r="E58" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E58">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.76100000000000001</v>
       </c>
       <c r="C59">
         <v>0.64500000000000002</v>
@@ -2458,15 +2857,17 @@
       <c r="D59">
         <v>0.64500000000000002</v>
       </c>
-      <c r="E59" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E59">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.73499999999999999</v>
       </c>
       <c r="C60">
         <v>0.65400000000000003</v>
@@ -2474,15 +2875,17 @@
       <c r="D60">
         <v>0.626</v>
       </c>
-      <c r="E60" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B61" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E60">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
       </c>
       <c r="C61">
         <v>0.66600000000000004</v>
@@ -2490,15 +2893,17 @@
       <c r="D61">
         <v>0.70399999999999996</v>
       </c>
-      <c r="E61" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B62" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E61">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.92800000000000005</v>
       </c>
       <c r="C62">
         <v>0.74199999999999999</v>
@@ -2506,15 +2911,17 @@
       <c r="D62">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E62" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B63" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E62">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
       </c>
       <c r="C63">
         <v>0.66300000000000003</v>
@@ -2522,15 +2929,17 @@
       <c r="D63">
         <v>0.67500000000000004</v>
       </c>
-      <c r="E63" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B64" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E63">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
       </c>
       <c r="C64">
         <v>0.68400000000000005</v>
@@ -2538,15 +2947,17 @@
       <c r="D64">
         <v>0.70299999999999996</v>
       </c>
-      <c r="E64" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E64">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.76900000000000002</v>
       </c>
       <c r="C65">
         <v>0.63500000000000001</v>
@@ -2554,15 +2965,17 @@
       <c r="D65">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E65" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E65">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.752</v>
       </c>
       <c r="C66">
         <v>0.61299999999999999</v>
@@ -2570,15 +2983,17 @@
       <c r="D66">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E66" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" t="e">
-        <f t="shared" ref="B67:B101" si="2">VALUE(MID(A67,10,5))</f>
-        <v>#VALUE!</v>
+      <c r="E66">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B101" si="1">VALUE(MID(A67,10,5))</f>
+        <v>0.79700000000000004</v>
       </c>
       <c r="C67">
         <v>0.70199999999999996</v>
@@ -2586,15 +3001,17 @@
       <c r="D67">
         <v>0.68600000000000005</v>
       </c>
-      <c r="E67" t="e">
-        <f t="shared" ref="E67:E101" si="3">(D67-B67)/D67</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B68" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E67">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0.69399999999999995</v>
       </c>
       <c r="C68">
         <v>0.66400000000000003</v>
@@ -2602,15 +3019,17 @@
       <c r="D68">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E68" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E68">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C69">
         <v>0.67</v>
@@ -2618,15 +3037,17 @@
       <c r="D69">
         <v>0.73599999999999999</v>
       </c>
-      <c r="E69" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E69">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0.70099999999999996</v>
       </c>
       <c r="C70">
         <v>0.60299999999999998</v>
@@ -2634,15 +3055,17 @@
       <c r="D70">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E70" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B71" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E70">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
       </c>
       <c r="C71">
         <v>0.69799999999999995</v>
@@ -2650,15 +3073,17 @@
       <c r="D71">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E71" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B72" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E71">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>0.746</v>
       </c>
       <c r="C72">
         <v>0.64100000000000001</v>
@@ -2666,15 +3091,17 @@
       <c r="D72">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E72" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B73" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E72">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>0.73699999999999999</v>
       </c>
       <c r="C73">
         <v>0.67</v>
@@ -2682,15 +3109,17 @@
       <c r="D73">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E73" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B74" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E73">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>0.84299999999999997</v>
       </c>
       <c r="C74">
         <v>0.73599999999999999</v>
@@ -2698,15 +3127,17 @@
       <c r="D74">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E74" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B75" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E74">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>0.73899999999999999</v>
       </c>
       <c r="C75">
         <v>0.65300000000000002</v>
@@ -2714,15 +3145,17 @@
       <c r="D75">
         <v>0.629</v>
       </c>
-      <c r="E75" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B76" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E75">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C76">
         <v>0.72399999999999998</v>
@@ -2730,15 +3163,17 @@
       <c r="D76">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E76" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B77" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E76">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C77">
         <v>0.72799999999999998</v>
@@ -2746,15 +3181,17 @@
       <c r="D77">
         <v>0.71899999999999997</v>
       </c>
-      <c r="E77" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B78" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E77">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
       </c>
       <c r="C78">
         <v>0.66200000000000003</v>
@@ -2762,15 +3199,17 @@
       <c r="D78">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E78" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B79" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E78">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>0.70799999999999996</v>
       </c>
       <c r="C79">
         <v>0.61699999999999999</v>
@@ -2778,15 +3217,17 @@
       <c r="D79">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E79" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B80" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E79">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>1.0489999999999999</v>
       </c>
       <c r="C80">
         <v>0.72699999999999998</v>
@@ -2794,15 +3235,17 @@
       <c r="D80">
         <v>0.82</v>
       </c>
-      <c r="E80" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E80">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
       </c>
       <c r="C81">
         <v>0.69</v>
@@ -2810,15 +3253,17 @@
       <c r="D81">
         <v>0.748</v>
       </c>
-      <c r="E81" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E81">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C82">
         <v>0.69299999999999995</v>
@@ -2826,15 +3271,17 @@
       <c r="D82">
         <v>0.76900000000000002</v>
       </c>
-      <c r="E82" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E82">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>0.745</v>
       </c>
       <c r="C83">
         <v>0.69099999999999995</v>
@@ -2842,15 +3289,17 @@
       <c r="D83">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E83" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E83">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C84">
         <v>0.78100000000000003</v>
@@ -2858,15 +3307,17 @@
       <c r="D84">
         <v>0.76900000000000002</v>
       </c>
-      <c r="E84" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E84">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="C85">
         <v>0.64200000000000002</v>
@@ -2874,15 +3325,17 @@
       <c r="D85">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E85" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E85">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0.70699999999999996</v>
       </c>
       <c r="C86">
         <v>0.65</v>
@@ -2890,15 +3343,17 @@
       <c r="D86">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E86" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E86">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C87">
         <v>0.67400000000000004</v>
@@ -2906,15 +3361,17 @@
       <c r="D87">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E87" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E87">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>0.73399999999999999</v>
       </c>
       <c r="C88">
         <v>0.72599999999999998</v>
@@ -2922,15 +3379,17 @@
       <c r="D88">
         <v>0.67</v>
       </c>
-      <c r="E88" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E88">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>0.71699999999999997</v>
       </c>
       <c r="C89">
         <v>0.59699999999999998</v>
@@ -2938,15 +3397,17 @@
       <c r="D89">
         <v>0.61799999999999999</v>
       </c>
-      <c r="E89" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E89">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C90">
         <v>0.69299999999999995</v>
@@ -2954,15 +3415,17 @@
       <c r="D90">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E90" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B91" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E90">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>0.78700000000000003</v>
       </c>
       <c r="C91">
         <v>0.64400000000000002</v>
@@ -2970,15 +3433,17 @@
       <c r="D91">
         <v>0.65</v>
       </c>
-      <c r="E91" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B92" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E91">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
       </c>
       <c r="C92">
         <v>0.72099999999999997</v>
@@ -2986,15 +3451,17 @@
       <c r="D92">
         <v>0.68500000000000005</v>
       </c>
-      <c r="E92" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B93" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E92">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>0.66400000000000003</v>
       </c>
       <c r="C93">
         <v>0.66400000000000003</v>
@@ -3002,15 +3469,17 @@
       <c r="D93">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E93" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B94" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E93">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C94">
         <v>0.69299999999999995</v>
@@ -3018,15 +3487,17 @@
       <c r="D94">
         <v>0.71699999999999997</v>
       </c>
-      <c r="E94" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B95" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E94">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C95">
         <v>0.68300000000000005</v>
@@ -3034,15 +3505,17 @@
       <c r="D95">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E95" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B96" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E95">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C96">
         <v>0.7</v>
@@ -3050,15 +3523,17 @@
       <c r="D96">
         <v>0.69</v>
       </c>
-      <c r="E96" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B97" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E96">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0.73499999999999999</v>
       </c>
       <c r="C97">
         <v>0.69399999999999995</v>
@@ -3066,15 +3541,17 @@
       <c r="D97">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E97" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B98" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E97">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0.74299999999999999</v>
       </c>
       <c r="C98">
         <v>0.67</v>
@@ -3082,15 +3559,17 @@
       <c r="D98">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E98" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B99" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E98">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0.90600000000000003</v>
       </c>
       <c r="C99">
         <v>0.74299999999999999</v>
@@ -3098,15 +3577,17 @@
       <c r="D99">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E99" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B100" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E99">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0.74299999999999999</v>
       </c>
       <c r="C100">
         <v>0.64700000000000002</v>
@@ -3114,15 +3595,17 @@
       <c r="D100">
         <v>0.64700000000000002</v>
       </c>
-      <c r="E100" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B101" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="E100">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0.66900000000000004</v>
       </c>
       <c r="C101">
         <v>0.64900000000000002</v>
@@ -3130,9 +3613,22 @@
       <c r="D101">
         <v>0.73099999999999998</v>
       </c>
-      <c r="E101" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="E101">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C102">
+        <f>SUM(C2:C101)</f>
+        <v>67.923999999999978</v>
+      </c>
+      <c r="D102">
+        <f>SUM(D2:D101)</f>
+        <v>68.708999999999989</v>
+      </c>
+      <c r="E102">
+        <f>SUM(E2:E101)</f>
+        <v>77.872</v>
       </c>
     </row>
   </sheetData>

--- a/MARATHON_80/test.xlsx
+++ b/MARATHON_80/test.xlsx
@@ -1516,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J101"/>
+      <selection activeCell="K21" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1529,7 +1529,7 @@
     <col min="7" max="8" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -1549,15 +1549,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>51</v>
       </c>
       <c r="B2">
-        <v>5.415</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="C2">
-        <v>0.77272700000000005</v>
+        <v>0.72857099999999997</v>
       </c>
       <c r="D2">
         <v>0.68899999999999995</v>
@@ -1579,32 +1579,19 @@
       </c>
       <c r="J2">
         <f>MAX(F2,G2,H2,I2)-C2</f>
-        <v>6.3338999999999923E-2</v>
+        <v>0.10749500000000001</v>
       </c>
       <c r="K2">
         <f>H2-C2</f>
-        <v>-1.1533000000000015E-2</v>
-      </c>
-      <c r="L2">
-        <v>51</v>
-      </c>
-      <c r="M2">
-        <v>7.1779999999999999</v>
-      </c>
-      <c r="N2">
-        <v>0.83606599999999998</v>
-      </c>
-      <c r="O2" t="b">
-        <f>L2=A2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3.2623000000000069E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>74</v>
       </c>
       <c r="B3">
-        <v>5.2439999999999998</v>
+        <v>8.3529999999999998</v>
       </c>
       <c r="C3">
         <v>1.0422499999999999</v>
@@ -1632,32 +1619,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="1">H3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>74</v>
-      </c>
-      <c r="M3">
-        <v>9.5749999999999993</v>
-      </c>
-      <c r="N3">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="O3" t="b">
-        <f t="shared" ref="O3:O66" si="2">L3=A3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" ref="K3:K66" si="1">H3-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>87</v>
       </c>
       <c r="B4">
-        <v>8.7579999999999991</v>
+        <v>8.6159999999999997</v>
       </c>
       <c r="C4">
-        <v>0.71900799999999998</v>
+        <v>0.763158</v>
       </c>
       <c r="D4">
         <v>0.64900000000000002</v>
@@ -1679,35 +1653,22 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>8.6548000000000069E-2</v>
+        <v>4.2398000000000047E-2</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>8.6548000000000069E-2</v>
-      </c>
-      <c r="L4">
-        <v>87</v>
-      </c>
-      <c r="M4">
-        <v>10.209</v>
-      </c>
-      <c r="N4">
-        <v>0.73109199999999996</v>
-      </c>
-      <c r="O4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>4.2398000000000047E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>74</v>
       </c>
       <c r="B5">
-        <v>6.6959999999999997</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="C5">
-        <v>0.93670900000000001</v>
+        <v>0.89156599999999997</v>
       </c>
       <c r="D5">
         <v>0.67200000000000004</v>
@@ -1729,35 +1690,22 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>-3.470899999999999E-2</v>
+        <v>1.0434000000000054E-2</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>-8.6134000000000044E-2</v>
-      </c>
-      <c r="L5">
-        <v>74</v>
-      </c>
-      <c r="M5">
-        <v>9.8710000000000004</v>
-      </c>
-      <c r="N5">
-        <v>0.86046500000000004</v>
-      </c>
-      <c r="O5" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-4.0991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>85</v>
       </c>
       <c r="B6">
-        <v>7.5709999999999997</v>
+        <v>8.7629999999999999</v>
       </c>
       <c r="C6">
-        <v>0.80952400000000002</v>
+        <v>0.79439300000000002</v>
       </c>
       <c r="D6">
         <v>0.64300000000000002</v>
@@ -1779,35 +1727,22 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>-2.9707000000000039E-2</v>
+        <v>-1.4576000000000033E-2</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>-2.9707000000000039E-2</v>
-      </c>
-      <c r="L6">
-        <v>85</v>
-      </c>
-      <c r="M6">
-        <v>10.098000000000001</v>
-      </c>
-      <c r="N6">
-        <v>0.75221199999999999</v>
-      </c>
-      <c r="O6" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-1.4576000000000033E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>92</v>
       </c>
       <c r="B7">
-        <v>8.2140000000000004</v>
+        <v>8.8320000000000007</v>
       </c>
       <c r="C7">
-        <v>0.88461500000000004</v>
+        <v>0.86792499999999995</v>
       </c>
       <c r="D7">
         <v>0.70199999999999996</v>
@@ -1829,35 +1764,22 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6690000000000094E-2</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>92</v>
-      </c>
-      <c r="M7">
-        <v>10.457000000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.82882900000000004</v>
-      </c>
-      <c r="O7" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1.6690000000000094E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>92</v>
       </c>
       <c r="B8">
-        <v>10.093999999999999</v>
+        <v>8.3109999999999999</v>
       </c>
       <c r="C8">
-        <v>0.82882900000000004</v>
+        <v>0.92</v>
       </c>
       <c r="D8">
         <v>0.69099999999999995</v>
@@ -1879,32 +1801,19 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>4.7360999999999986E-2</v>
+        <v>-4.3810000000000016E-2</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>4.7360999999999986E-2</v>
-      </c>
-      <c r="L8">
-        <v>92</v>
-      </c>
-      <c r="M8">
-        <v>10.093999999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.82882900000000004</v>
-      </c>
-      <c r="O8" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-4.3810000000000016E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>87</v>
       </c>
       <c r="B9">
-        <v>10.102</v>
+        <v>8.5429999999999993</v>
       </c>
       <c r="C9">
         <v>0.77678599999999998</v>
@@ -1935,29 +1844,16 @@
         <f t="shared" si="1"/>
         <v>-2.6785999999999976E-2</v>
       </c>
-      <c r="L9">
-        <v>87</v>
-      </c>
-      <c r="M9">
-        <v>10.102</v>
-      </c>
-      <c r="N9">
-        <v>0.77678599999999998</v>
-      </c>
-      <c r="O9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>81</v>
       </c>
       <c r="B10">
-        <v>10.151999999999999</v>
+        <v>9.1379999999999999</v>
       </c>
       <c r="C10">
-        <v>0.76415100000000002</v>
+        <v>0.72972999999999999</v>
       </c>
       <c r="D10">
         <v>0.69799999999999995</v>
@@ -1979,35 +1875,22 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4421000000000035E-2</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>-3.4421000000000035E-2</v>
-      </c>
-      <c r="L10">
-        <v>81</v>
-      </c>
-      <c r="M10">
-        <v>10.151999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.76415100000000002</v>
-      </c>
-      <c r="O10" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>69</v>
       </c>
       <c r="B11">
-        <v>10.02</v>
+        <v>8.5329999999999995</v>
       </c>
       <c r="C11">
-        <v>0.71133999999999997</v>
+        <v>0.775281</v>
       </c>
       <c r="D11">
         <v>0.66900000000000004</v>
@@ -2029,35 +1912,22 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>5.5327000000000015E-2</v>
+        <v>-8.6140000000000105E-3</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>5.5327000000000015E-2</v>
-      </c>
-      <c r="L11">
-        <v>69</v>
-      </c>
-      <c r="M11">
-        <v>10.02</v>
-      </c>
-      <c r="N11">
-        <v>0.71133999999999997</v>
-      </c>
-      <c r="O11" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-8.6140000000000105E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>61</v>
       </c>
       <c r="B12">
-        <v>9.2089999999999996</v>
+        <v>8.3119999999999994</v>
       </c>
       <c r="C12">
-        <v>0.76249999999999996</v>
+        <v>0.81333299999999997</v>
       </c>
       <c r="D12">
         <v>0.63500000000000001</v>
@@ -2079,35 +1949,22 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>4.0132000000000057E-2</v>
+        <v>-1.0700999999999961E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K66" si="3">G12-C12</f>
-        <v>-9.4999999999999529E-3</v>
-      </c>
-      <c r="L12">
-        <v>61</v>
-      </c>
-      <c r="M12">
-        <v>9.2089999999999996</v>
-      </c>
-      <c r="N12">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="O12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>-1.0700999999999961E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>97</v>
       </c>
       <c r="B13">
-        <v>10.638999999999999</v>
+        <v>8.3209999999999997</v>
       </c>
       <c r="C13">
-        <v>0.74615399999999998</v>
+        <v>0.71851900000000002</v>
       </c>
       <c r="D13">
         <v>0.58399999999999996</v>
@@ -2129,35 +1986,22 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7634999999999965E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
-        <v>-6.3153999999999932E-2</v>
-      </c>
-      <c r="L13">
-        <v>97</v>
-      </c>
-      <c r="M13">
-        <v>10.638999999999999</v>
-      </c>
-      <c r="N13">
-        <v>0.74615399999999998</v>
-      </c>
-      <c r="O13" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>1.6328999999999927E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>56</v>
       </c>
       <c r="B14">
-        <v>7.6269999999999998</v>
+        <v>8.1370000000000005</v>
       </c>
       <c r="C14">
-        <v>0.982456</v>
+        <v>0.91803299999999999</v>
       </c>
       <c r="D14">
         <v>0.73599999999999999</v>
@@ -2179,35 +2023,22 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.4423000000000008E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
-        <v>-1.7456000000000027E-2</v>
-      </c>
-      <c r="L14">
-        <v>56</v>
-      </c>
-      <c r="M14">
-        <v>7.6269999999999998</v>
-      </c>
-      <c r="N14">
-        <v>0.982456</v>
-      </c>
-      <c r="O14" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>3.1120000000000037E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>65</v>
       </c>
       <c r="B15">
-        <v>9.3079999999999998</v>
+        <v>8.375</v>
       </c>
       <c r="C15">
-        <v>0.79268300000000003</v>
+        <v>0.78313299999999997</v>
       </c>
       <c r="D15">
         <v>0.66300000000000003</v>
@@ -2229,35 +2060,22 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5500000000000584E-3</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
-        <v>-1.9683000000000006E-2</v>
-      </c>
-      <c r="L15">
-        <v>65</v>
-      </c>
-      <c r="M15">
-        <v>9.3079999999999998</v>
-      </c>
-      <c r="N15">
-        <v>0.79268300000000003</v>
-      </c>
-      <c r="O15" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>62</v>
       </c>
       <c r="B16">
-        <v>9.2080000000000002</v>
+        <v>8.3350000000000009</v>
       </c>
       <c r="C16">
-        <v>0.95384599999999997</v>
+        <v>0.93939399999999995</v>
       </c>
       <c r="D16">
         <v>0.69599999999999995</v>
@@ -2279,35 +2097,22 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.445200000000002E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
-        <v>-4.284599999999994E-2</v>
-      </c>
-      <c r="L16">
-        <v>62</v>
-      </c>
-      <c r="M16">
-        <v>9.2080000000000002</v>
-      </c>
-      <c r="N16">
-        <v>0.95384599999999997</v>
-      </c>
-      <c r="O16" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>-0.11272699999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>68</v>
       </c>
       <c r="B17">
-        <v>9.5090000000000003</v>
+        <v>8.407</v>
       </c>
       <c r="C17">
-        <v>0.88311700000000004</v>
+        <v>0.93150699999999997</v>
       </c>
       <c r="D17">
         <v>0.73099999999999998</v>
@@ -2329,32 +2134,19 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>7.4628999999999945E-2</v>
+        <v>2.6239000000000012E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
-        <v>-4.4117000000000073E-2</v>
-      </c>
-      <c r="L17">
-        <v>68</v>
-      </c>
-      <c r="M17">
-        <v>9.5090000000000003</v>
-      </c>
-      <c r="N17">
-        <v>0.88311700000000004</v>
-      </c>
-      <c r="O17" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>2.6239000000000012E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>63</v>
       </c>
       <c r="B18">
-        <v>9.8030000000000008</v>
+        <v>8.343</v>
       </c>
       <c r="C18">
         <v>0.74117599999999995</v>
@@ -2382,32 +2174,19 @@
         <v>3.6602000000000023E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
-        <v>1.7824000000000062E-2</v>
-      </c>
-      <c r="L18">
-        <v>63</v>
-      </c>
-      <c r="M18">
-        <v>9.8030000000000008</v>
-      </c>
-      <c r="N18">
-        <v>0.74117599999999995</v>
-      </c>
-      <c r="O18" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>3.6602000000000023E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>89</v>
       </c>
       <c r="B19">
-        <v>10.253</v>
+        <v>9.34</v>
       </c>
       <c r="C19">
-        <v>0.72357700000000003</v>
+        <v>0.68992200000000004</v>
       </c>
       <c r="D19">
         <v>0.59699999999999998</v>
@@ -2429,32 +2208,19 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>2.4321999999999955E-2</v>
+        <v>5.7976999999999945E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
-        <v>-6.577000000000055E-3</v>
-      </c>
-      <c r="L19">
-        <v>89</v>
-      </c>
-      <c r="M19">
-        <v>10.253</v>
-      </c>
-      <c r="N19">
-        <v>0.72357700000000003</v>
-      </c>
-      <c r="O19" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>5.7976999999999945E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>68</v>
       </c>
       <c r="B20">
-        <v>9.3569999999999993</v>
+        <v>8.6310000000000002</v>
       </c>
       <c r="C20">
         <v>0.906667</v>
@@ -2482,32 +2248,19 @@
         <v>1.2252000000000041E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
-        <v>-3.5667000000000004E-2</v>
-      </c>
-      <c r="L20">
-        <v>68</v>
-      </c>
-      <c r="M20">
-        <v>9.3569999999999993</v>
-      </c>
-      <c r="N20">
-        <v>0.906667</v>
-      </c>
-      <c r="O20" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>1.2252000000000041E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>60</v>
       </c>
       <c r="B21">
-        <v>9.3190000000000008</v>
+        <v>8.0180000000000007</v>
       </c>
       <c r="C21">
-        <v>0.9375</v>
+        <v>0.98360700000000001</v>
       </c>
       <c r="D21">
         <v>0.75</v>
@@ -2529,35 +2282,16 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>4.6107000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
-        <v>-4.9999999999994493E-4</v>
-      </c>
-      <c r="L21">
-        <v>60</v>
-      </c>
-      <c r="M21">
-        <v>9.3190000000000008</v>
-      </c>
-      <c r="N21">
-        <v>0.9375</v>
-      </c>
-      <c r="O21" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>78</v>
-      </c>
-      <c r="B22">
-        <v>9.9629999999999992</v>
-      </c>
-      <c r="C22">
-        <v>0.92857100000000004</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <v>0.67800000000000005</v>
@@ -2579,35 +2313,16 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92857100000000004</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
-        <v>-9.0571000000000068E-2</v>
-      </c>
-      <c r="L22">
-        <v>78</v>
-      </c>
-      <c r="M22">
-        <v>9.9629999999999992</v>
-      </c>
-      <c r="N22">
-        <v>0.92857100000000004</v>
-      </c>
-      <c r="O22" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.84782599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>75</v>
-      </c>
-      <c r="B23">
-        <v>10.193</v>
-      </c>
-      <c r="C23">
-        <v>0.75</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>0.66900000000000004</v>
@@ -2629,35 +2344,16 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>7.5760000000000272E-3</v>
+        <v>0.75757600000000003</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
-        <v>-5.600000000000005E-2</v>
-      </c>
-      <c r="L23">
-        <v>75</v>
-      </c>
-      <c r="M23">
-        <v>10.193</v>
-      </c>
-      <c r="N23">
-        <v>0.75</v>
-      </c>
-      <c r="O23" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.75757600000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>81</v>
-      </c>
-      <c r="B24">
-        <v>9.93</v>
-      </c>
-      <c r="C24">
-        <v>0.77142900000000003</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>0.63700000000000001</v>
@@ -2679,35 +2375,16 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.77142900000000003</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
-        <v>-4.290000000000127E-4</v>
-      </c>
-      <c r="L24">
-        <v>81</v>
-      </c>
-      <c r="M24">
-        <v>9.93</v>
-      </c>
-      <c r="N24">
-        <v>0.77142900000000003</v>
-      </c>
-      <c r="O24" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.73636400000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>85</v>
-      </c>
-      <c r="B25">
-        <v>10.391999999999999</v>
-      </c>
-      <c r="C25">
-        <v>0.70833299999999999</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>0.68500000000000005</v>
@@ -2729,35 +2406,16 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>8.6060000000000025E-2</v>
+        <v>0.79439300000000002</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
-        <v>1.1666999999999983E-2</v>
-      </c>
-      <c r="L25">
-        <v>85</v>
-      </c>
-      <c r="M25">
-        <v>10.391999999999999</v>
-      </c>
-      <c r="N25">
-        <v>0.70833299999999999</v>
-      </c>
-      <c r="O25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.79439300000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>73</v>
-      </c>
-      <c r="B26">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="C26">
-        <v>0.76041700000000001</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>0.61799999999999999</v>
@@ -2779,35 +2437,16 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>8.0040000000000111E-3</v>
+        <v>0.76842100000000002</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
-        <v>-4.5417000000000041E-2</v>
-      </c>
-      <c r="L26">
-        <v>73</v>
-      </c>
-      <c r="M26">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="N26">
-        <v>0.76041700000000001</v>
-      </c>
-      <c r="O26" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.76842100000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>52</v>
-      </c>
-      <c r="B27">
-        <v>6.1740000000000004</v>
-      </c>
-      <c r="C27">
-        <v>1.0833299999999999</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>0.70199999999999996</v>
@@ -2829,35 +2468,16 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0833299999999999</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
-        <v>-0.17132999999999987</v>
-      </c>
-      <c r="L27">
-        <v>52</v>
-      </c>
-      <c r="M27">
-        <v>6.1740000000000004</v>
-      </c>
-      <c r="N27">
-        <v>1.0833299999999999</v>
-      </c>
-      <c r="O27" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.91228100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>8.2159999999999993</v>
-      </c>
-      <c r="C28">
-        <v>0.90909099999999998</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>0.79300000000000004</v>
@@ -2879,35 +2499,16 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>9.0909000000000018E-2</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
-        <v>7.0909E-2</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
-      <c r="M28">
-        <v>8.2159999999999993</v>
-      </c>
-      <c r="N28">
-        <v>0.90909099999999998</v>
-      </c>
-      <c r="O28" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.98039200000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>79</v>
-      </c>
-      <c r="B29">
-        <v>10.159000000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.73148100000000005</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>0.622</v>
@@ -2929,35 +2530,16 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>1.3518999999999948E-2</v>
+        <v>0.745</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
-        <v>-6.2481000000000009E-2</v>
-      </c>
-      <c r="L29">
-        <v>79</v>
-      </c>
-      <c r="M29">
-        <v>10.159000000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.73148100000000005</v>
-      </c>
-      <c r="O29" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.72477100000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>51</v>
-      </c>
-      <c r="B30">
-        <v>8.8350000000000009</v>
-      </c>
-      <c r="C30">
-        <v>0.796875</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>0.64500000000000002</v>
@@ -2979,35 +2561,16 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.796875</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
-        <v>-2.487499999999998E-2</v>
-      </c>
-      <c r="L30">
-        <v>51</v>
-      </c>
-      <c r="M30">
-        <v>8.8350000000000009</v>
-      </c>
-      <c r="N30">
-        <v>0.796875</v>
-      </c>
-      <c r="O30" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.76119400000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>72</v>
-      </c>
-      <c r="B31">
-        <v>9.0749999999999993</v>
-      </c>
-      <c r="C31">
-        <v>0.98630099999999998</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>0.66600000000000004</v>
@@ -3029,35 +2592,16 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98630099999999998</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
-        <v>-0.22930099999999998</v>
-      </c>
-      <c r="L31">
-        <v>72</v>
-      </c>
-      <c r="M31">
-        <v>9.0749999999999993</v>
-      </c>
-      <c r="N31">
-        <v>0.98630099999999998</v>
-      </c>
-      <c r="O31" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.81818199999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>57</v>
-      </c>
-      <c r="B32">
-        <v>9.3019999999999996</v>
-      </c>
-      <c r="C32">
-        <v>0.730769</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>0.66200000000000003</v>
@@ -3079,35 +2623,16 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>4.9231000000000025E-2</v>
+        <v>0.78</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
-        <v>4.9231000000000025E-2</v>
-      </c>
-      <c r="L32">
-        <v>57</v>
-      </c>
-      <c r="M32">
-        <v>9.3019999999999996</v>
-      </c>
-      <c r="N32">
-        <v>0.730769</v>
-      </c>
-      <c r="O32" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.77027000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>86</v>
-      </c>
-      <c r="B33">
-        <v>10.095000000000001</v>
-      </c>
-      <c r="C33">
-        <v>0.86868699999999999</v>
+        <v>84</v>
       </c>
       <c r="D33">
         <v>0.71599999999999997</v>
@@ -3129,35 +2654,16 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.86868699999999999</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
-        <v>-7.2686999999999946E-2</v>
-      </c>
-      <c r="L33">
-        <v>86</v>
-      </c>
-      <c r="M33">
-        <v>10.095000000000001</v>
-      </c>
-      <c r="N33">
-        <v>0.86868699999999999</v>
-      </c>
-      <c r="O33" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.85148500000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>84</v>
-      </c>
-      <c r="B34">
-        <v>10.085000000000001</v>
-      </c>
-      <c r="C34">
-        <v>0.80769199999999997</v>
+        <v>67</v>
       </c>
       <c r="D34">
         <v>0.66600000000000004</v>
@@ -3179,35 +2685,16 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>7.8420000000000156E-3</v>
+        <v>0.81553399999999998</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
-        <v>-6.4691999999999972E-2</v>
-      </c>
-      <c r="L34">
-        <v>84</v>
-      </c>
-      <c r="M34">
-        <v>10.085000000000001</v>
-      </c>
-      <c r="N34">
-        <v>0.80769199999999997</v>
-      </c>
-      <c r="O34" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.81553399999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>67</v>
-      </c>
-      <c r="B35">
-        <v>9.49</v>
-      </c>
-      <c r="C35">
-        <v>0.78823500000000002</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>0.65</v>
@@ -3229,35 +2716,16 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.78823500000000002</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
-        <v>-6.0235000000000039E-2</v>
-      </c>
-      <c r="L35">
-        <v>67</v>
-      </c>
-      <c r="M35">
-        <v>9.49</v>
-      </c>
-      <c r="N35">
-        <v>0.78823500000000002</v>
-      </c>
-      <c r="O35" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.73626400000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>88</v>
-      </c>
-      <c r="B36">
-        <v>10.009</v>
-      </c>
-      <c r="C36">
-        <v>0.85436900000000005</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <v>0.76500000000000001</v>
@@ -3279,35 +2747,16 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>3.4519999999999995E-2</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
-        <v>-3.2369000000000092E-2</v>
-      </c>
-      <c r="L36">
-        <v>88</v>
-      </c>
-      <c r="M36">
-        <v>10.009</v>
-      </c>
-      <c r="N36">
-        <v>0.85436900000000005</v>
-      </c>
-      <c r="O36" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.88888900000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>83</v>
-      </c>
-      <c r="B37">
-        <v>10.146000000000001</v>
-      </c>
-      <c r="C37">
-        <v>0.75454500000000002</v>
+        <v>70</v>
       </c>
       <c r="D37">
         <v>0.64800000000000002</v>
@@ -3329,35 +2778,16 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>6.9230000000000125E-3</v>
+        <v>0.76146800000000003</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
-        <v>-1.3545000000000029E-2</v>
-      </c>
-      <c r="L37">
-        <v>83</v>
-      </c>
-      <c r="M37">
-        <v>10.146000000000001</v>
-      </c>
-      <c r="N37">
-        <v>0.75454500000000002</v>
-      </c>
-      <c r="O37" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.76146800000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>70</v>
-      </c>
-      <c r="B38">
-        <v>9.5570000000000004</v>
-      </c>
-      <c r="C38">
-        <v>0.97222200000000003</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>0.752</v>
@@ -3379,35 +2809,16 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.97222200000000003</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
-        <v>-0.11922200000000005</v>
-      </c>
-      <c r="L38">
-        <v>70</v>
-      </c>
-      <c r="M38">
-        <v>9.5570000000000004</v>
-      </c>
-      <c r="N38">
-        <v>0.97222200000000003</v>
-      </c>
-      <c r="O38" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.92105300000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>95</v>
-      </c>
-      <c r="B39">
-        <v>10.565</v>
-      </c>
-      <c r="C39">
-        <v>0.73643400000000003</v>
+        <v>99</v>
       </c>
       <c r="D39">
         <v>0.68300000000000005</v>
@@ -3429,35 +2840,16 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>2.3565999999999976E-2</v>
+        <v>0.76</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
-        <v>-3.8434000000000079E-2</v>
-      </c>
-      <c r="L39">
-        <v>95</v>
-      </c>
-      <c r="M39">
-        <v>10.565</v>
-      </c>
-      <c r="N39">
-        <v>0.73643400000000003</v>
-      </c>
-      <c r="O39" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>99</v>
-      </c>
-      <c r="B40">
-        <v>10.749000000000001</v>
-      </c>
-      <c r="C40">
-        <v>0.72262800000000005</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>0.64200000000000002</v>
@@ -3479,35 +2871,16 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>1.6177999999999915E-2</v>
+        <v>0.73880599999999996</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
-        <v>-3.5627999999999993E-2</v>
-      </c>
-      <c r="L40">
-        <v>99</v>
-      </c>
-      <c r="M40">
-        <v>10.749000000000001</v>
-      </c>
-      <c r="N40">
-        <v>0.72262800000000005</v>
-      </c>
-      <c r="O40" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.73880599999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>84</v>
-      </c>
-      <c r="B41">
-        <v>9.7560000000000002</v>
-      </c>
-      <c r="C41">
-        <v>0.84848500000000004</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>0.73599999999999999</v>
@@ -3529,35 +2902,16 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>0.11703199999999991</v>
+        <v>0.96551699999999996</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
-        <v>-1.7485000000000084E-2</v>
-      </c>
-      <c r="L41">
-        <v>84</v>
-      </c>
-      <c r="M41">
-        <v>9.7560000000000002</v>
-      </c>
-      <c r="N41">
-        <v>0.84848500000000004</v>
-      </c>
-      <c r="O41" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.96551699999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>90</v>
-      </c>
-      <c r="B42">
-        <v>10.194000000000001</v>
-      </c>
-      <c r="C42">
-        <v>0.9</v>
+        <v>97</v>
       </c>
       <c r="D42">
         <v>0.69699999999999995</v>
@@ -3579,36 +2933,14 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
-        <v>-8.9999999999999969E-2</v>
-      </c>
-      <c r="L42">
-        <v>90</v>
-      </c>
-      <c r="M42">
-        <v>10.194000000000001</v>
-      </c>
-      <c r="N42">
-        <v>0.9</v>
-      </c>
-      <c r="O42" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>97</v>
-      </c>
-      <c r="B43">
-        <v>10.618</v>
-      </c>
-      <c r="C43">
-        <v>0.72932300000000005</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.84905699999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D43">
         <v>0.65900000000000003</v>
       </c>
@@ -3629,36 +2961,14 @@
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>1.0676999999999937E-2</v>
+        <v>0.74</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
-        <v>-7.4323000000000028E-2</v>
-      </c>
-      <c r="L43">
-        <v>97</v>
-      </c>
-      <c r="M43">
-        <v>10.618</v>
-      </c>
-      <c r="N43">
-        <v>0.72932300000000005</v>
-      </c>
-      <c r="O43" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>67</v>
-      </c>
-      <c r="B44">
-        <v>9.8759999999999994</v>
-      </c>
-      <c r="C44">
-        <v>0.74444399999999999</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.73484799999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D44">
         <v>0.70699999999999996</v>
       </c>
@@ -3679,36 +2989,14 @@
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>0.13434400000000002</v>
+        <v>0.87878800000000001</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
-        <v>0.120556</v>
-      </c>
-      <c r="L44">
-        <v>67</v>
-      </c>
-      <c r="M44">
-        <v>9.8759999999999994</v>
-      </c>
-      <c r="N44">
-        <v>0.74444399999999999</v>
-      </c>
-      <c r="O44" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>52</v>
-      </c>
-      <c r="B45">
-        <v>6.9029999999999996</v>
-      </c>
-      <c r="C45">
-        <v>1.0196099999999999</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.87878800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D45">
         <v>0.626</v>
       </c>
@@ -3729,36 +3017,14 @@
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0196099999999999</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
-        <v>-0.2676099999999999</v>
-      </c>
-      <c r="L45">
-        <v>52</v>
-      </c>
-      <c r="M45">
-        <v>6.9029999999999996</v>
-      </c>
-      <c r="N45">
-        <v>1.0196099999999999</v>
-      </c>
-      <c r="O45" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>91</v>
-      </c>
-      <c r="B46">
-        <v>10.196</v>
-      </c>
-      <c r="C46">
-        <v>0.764706</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.73626400000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D46">
         <v>0.74199999999999999</v>
       </c>
@@ -3779,36 +3045,14 @@
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>0.18074900000000005</v>
+        <v>0.94545500000000005</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
-        <v>0.18029399999999995</v>
-      </c>
-      <c r="L46">
-        <v>91</v>
-      </c>
-      <c r="M46">
-        <v>10.196</v>
-      </c>
-      <c r="N46">
-        <v>0.764706</v>
-      </c>
-      <c r="O46" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>8.7780000000000005</v>
-      </c>
-      <c r="C47">
-        <v>0.80303000000000002</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.94545500000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D47">
         <v>0.67400000000000004</v>
       </c>
@@ -3829,36 +3073,14 @@
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80303000000000002</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
-        <v>-9.8030000000000062E-2</v>
-      </c>
-      <c r="L47">
-        <v>53</v>
-      </c>
-      <c r="M47">
-        <v>8.7780000000000005</v>
-      </c>
-      <c r="N47">
-        <v>0.80303000000000002</v>
-      </c>
-      <c r="O47" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>74</v>
-      </c>
-      <c r="B48">
-        <v>9.5709999999999997</v>
-      </c>
-      <c r="C48">
-        <v>0.91357999999999995</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.77777799999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D48">
         <v>0.71599999999999997</v>
       </c>
@@ -3879,36 +3101,14 @@
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.91357999999999995</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
-        <v>-9.8580000000000001E-2</v>
-      </c>
-      <c r="L48">
-        <v>74</v>
-      </c>
-      <c r="M48">
-        <v>9.5709999999999997</v>
-      </c>
-      <c r="N48">
-        <v>0.91357999999999995</v>
-      </c>
-      <c r="O48" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>98</v>
-      </c>
-      <c r="B49">
-        <v>10.087</v>
-      </c>
-      <c r="C49">
-        <v>0.86725699999999994</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.81538500000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D49">
         <v>0.66</v>
       </c>
@@ -3929,36 +3129,14 @@
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.86725699999999994</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
-        <v>-3.6256999999999984E-2</v>
-      </c>
-      <c r="L49">
-        <v>98</v>
-      </c>
-      <c r="M49">
-        <v>10.087</v>
-      </c>
-      <c r="N49">
-        <v>0.86725699999999994</v>
-      </c>
-      <c r="O49" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>98</v>
-      </c>
-      <c r="B50">
-        <v>10.523</v>
-      </c>
-      <c r="C50">
-        <v>0.89908299999999997</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.83146100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D50">
         <v>0.73099999999999998</v>
       </c>
@@ -3979,36 +3157,14 @@
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.89908299999999997</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
-        <v>-0.10308299999999992</v>
-      </c>
-      <c r="L50">
-        <v>98</v>
-      </c>
-      <c r="M50">
-        <v>10.523</v>
-      </c>
-      <c r="N50">
-        <v>0.89908299999999997</v>
-      </c>
-      <c r="O50" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>99</v>
-      </c>
-      <c r="B51">
-        <v>10.856999999999999</v>
-      </c>
-      <c r="C51">
-        <v>0.71223000000000003</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.80327899999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D51">
         <v>0.67100000000000004</v>
       </c>
@@ -4029,36 +3185,14 @@
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>0.104437</v>
+        <v>0.81666700000000003</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
-        <v>8.3770000000000011E-2</v>
-      </c>
-      <c r="L51">
-        <v>99</v>
-      </c>
-      <c r="M51">
-        <v>10.856999999999999</v>
-      </c>
-      <c r="N51">
-        <v>0.71223000000000003</v>
-      </c>
-      <c r="O51" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>9.1780000000000008</v>
-      </c>
-      <c r="C52">
-        <v>0.796875</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.81666700000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D52">
         <v>0.746</v>
       </c>
@@ -4079,36 +3213,14 @@
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>1.4719000000000038E-2</v>
+        <v>0.81159400000000004</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
-        <v>3.1250000000000444E-3</v>
-      </c>
-      <c r="L52">
-        <v>51</v>
-      </c>
-      <c r="M52">
-        <v>9.1780000000000008</v>
-      </c>
-      <c r="N52">
-        <v>0.796875</v>
-      </c>
-      <c r="O52" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>8.9429999999999996</v>
-      </c>
-      <c r="C53">
-        <v>0.82089599999999996</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.81159400000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D53">
         <v>0.61799999999999999</v>
       </c>
@@ -4129,36 +3241,14 @@
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.82089599999999996</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
-        <v>-0.1338959999999999</v>
-      </c>
-      <c r="L53">
-        <v>55</v>
-      </c>
-      <c r="M53">
-        <v>8.9429999999999996</v>
-      </c>
-      <c r="N53">
-        <v>0.82089599999999996</v>
-      </c>
-      <c r="O53" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>66</v>
-      </c>
-      <c r="B54">
-        <v>9.6959999999999997</v>
-      </c>
-      <c r="C54">
-        <v>0.92957699999999999</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.76744199999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D54">
         <v>0.68899999999999995</v>
       </c>
@@ -4179,36 +3269,14 @@
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92957699999999999</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
-        <v>-9.3577000000000021E-2</v>
-      </c>
-      <c r="L54">
-        <v>66</v>
-      </c>
-      <c r="M54">
-        <v>9.6959999999999997</v>
-      </c>
-      <c r="N54">
-        <v>0.92957699999999999</v>
-      </c>
-      <c r="O54" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>50</v>
-      </c>
-      <c r="B55">
-        <v>6.7720000000000002</v>
-      </c>
-      <c r="C55">
-        <v>1.02041</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.83606599999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D55">
         <v>0.66200000000000003</v>
       </c>
@@ -4229,36 +3297,14 @@
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.02041</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
-        <v>-0.24641000000000002</v>
-      </c>
-      <c r="L55">
-        <v>50</v>
-      </c>
-      <c r="M55">
-        <v>6.7720000000000002</v>
-      </c>
-      <c r="N55">
-        <v>1.02041</v>
-      </c>
-      <c r="O55" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>51</v>
-      </c>
-      <c r="B56">
-        <v>9.0470000000000006</v>
-      </c>
-      <c r="C56">
-        <v>0.796875</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.78571400000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D56">
         <v>0.74099999999999999</v>
       </c>
@@ -4279,36 +3325,14 @@
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>0.203125</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
-        <v>0.203125</v>
-      </c>
-      <c r="L56">
-        <v>51</v>
-      </c>
-      <c r="M56">
-        <v>9.0470000000000006</v>
-      </c>
-      <c r="N56">
-        <v>0.796875</v>
-      </c>
-      <c r="O56" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>89</v>
-      </c>
-      <c r="B57">
-        <v>10.288</v>
-      </c>
-      <c r="C57">
-        <v>0.76068400000000003</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.97058800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D57">
         <v>0.65400000000000003</v>
       </c>
@@ -4329,36 +3353,14 @@
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>0.23931599999999997</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
-        <v>0.141316</v>
-      </c>
-      <c r="L57">
-        <v>89</v>
-      </c>
-      <c r="M57">
-        <v>10.288</v>
-      </c>
-      <c r="N57">
-        <v>0.76068400000000003</v>
-      </c>
-      <c r="O57" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>74</v>
-      </c>
-      <c r="B58">
-        <v>9.8249999999999993</v>
-      </c>
-      <c r="C58">
-        <v>0.80434799999999995</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D58">
         <v>0.68400000000000005</v>
       </c>
@@ -4379,36 +3381,14 @@
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>0.15719000000000005</v>
+        <v>0.961538</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
-        <v>0.12065200000000009</v>
-      </c>
-      <c r="L58">
-        <v>74</v>
-      </c>
-      <c r="M58">
-        <v>9.8249999999999993</v>
-      </c>
-      <c r="N58">
-        <v>0.80434799999999995</v>
-      </c>
-      <c r="O58" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59">
-        <v>6.6360000000000001</v>
-      </c>
-      <c r="C59">
-        <v>0.94545500000000005</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.961538</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D59">
         <v>0.64500000000000002</v>
       </c>
@@ -4429,36 +3409,14 @@
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.94545500000000005</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
-        <v>-0.19545500000000005</v>
-      </c>
-      <c r="L59">
-        <v>52</v>
-      </c>
-      <c r="M59">
-        <v>6.6360000000000001</v>
-      </c>
-      <c r="N59">
-        <v>0.94545500000000005</v>
-      </c>
-      <c r="O59" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>79</v>
-      </c>
-      <c r="B60">
-        <v>9.9979999999999993</v>
-      </c>
-      <c r="C60">
-        <v>0.71818199999999999</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.77272700000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D60">
         <v>0.65400000000000003</v>
       </c>
@@ -4479,36 +3437,14 @@
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
-        <v>1.6818E-2</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
-        <v>1.6818E-2</v>
-      </c>
-      <c r="L60">
-        <v>79</v>
-      </c>
-      <c r="M60">
-        <v>9.9979999999999993</v>
-      </c>
-      <c r="N60">
-        <v>0.71818199999999999</v>
-      </c>
-      <c r="O60" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>76</v>
-      </c>
-      <c r="B61">
-        <v>9.6059999999999999</v>
-      </c>
-      <c r="C61">
-        <v>0.78350500000000001</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.706349</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D61">
         <v>0.66600000000000004</v>
       </c>
@@ -4529,36 +3465,14 @@
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>9.6494999999999997E-2</v>
+        <v>0.88</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
-        <v>9.6494999999999997E-2</v>
-      </c>
-      <c r="L61">
-        <v>76</v>
-      </c>
-      <c r="M61">
-        <v>9.6059999999999999</v>
-      </c>
-      <c r="N61">
-        <v>0.78350500000000001</v>
-      </c>
-      <c r="O61" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>87</v>
-      </c>
-      <c r="B62">
-        <v>9.9629999999999992</v>
-      </c>
-      <c r="C62">
-        <v>0.73109199999999996</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.79569900000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D62">
         <v>0.74199999999999999</v>
       </c>
@@ -4579,36 +3493,14 @@
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
-        <v>0.30890800000000007</v>
+        <v>1.04</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
-        <v>0.30890800000000007</v>
-      </c>
-      <c r="L62">
-        <v>87</v>
-      </c>
-      <c r="M62">
-        <v>9.9629999999999992</v>
-      </c>
-      <c r="N62">
-        <v>0.73109199999999996</v>
-      </c>
-      <c r="O62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>73</v>
-      </c>
-      <c r="B63">
-        <v>9.7639999999999993</v>
-      </c>
-      <c r="C63">
-        <v>0.76842100000000002</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D63">
         <v>0.66300000000000003</v>
       </c>
@@ -4629,36 +3521,14 @@
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.76842100000000002</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
-        <v>-5.7421000000000055E-2</v>
-      </c>
-      <c r="L63">
-        <v>73</v>
-      </c>
-      <c r="M63">
-        <v>9.7639999999999993</v>
-      </c>
-      <c r="N63">
-        <v>0.76842100000000002</v>
-      </c>
-      <c r="O63" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>59</v>
-      </c>
-      <c r="B64">
-        <v>8.9030000000000005</v>
-      </c>
-      <c r="C64">
-        <v>0.80821900000000002</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.76698999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D64">
         <v>0.68400000000000005</v>
       </c>
@@ -4679,36 +3549,14 @@
       </c>
       <c r="J64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80821900000000002</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
-        <v>-4.8219000000000012E-2</v>
-      </c>
-      <c r="L64">
-        <v>59</v>
-      </c>
-      <c r="M64">
-        <v>8.9030000000000005</v>
-      </c>
-      <c r="N64">
-        <v>0.80821900000000002</v>
-      </c>
-      <c r="O64" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>93</v>
-      </c>
-      <c r="B65">
-        <v>10.396000000000001</v>
-      </c>
-      <c r="C65">
-        <v>0.69403000000000004</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D65">
         <v>0.63500000000000001</v>
       </c>
@@ -4729,36 +3577,14 @@
       </c>
       <c r="J65">
         <f t="shared" si="0"/>
-        <v>7.4969999999999981E-2</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
-        <v>6.9699999999999207E-3</v>
-      </c>
-      <c r="L65">
-        <v>93</v>
-      </c>
-      <c r="M65">
-        <v>10.396000000000001</v>
-      </c>
-      <c r="N65">
-        <v>0.69403000000000004</v>
-      </c>
-      <c r="O65" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>53</v>
-      </c>
-      <c r="B66">
-        <v>8.4990000000000006</v>
-      </c>
-      <c r="C66">
-        <v>0.80303000000000002</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.73109199999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D66">
         <v>0.61299999999999999</v>
       </c>
@@ -4779,36 +3605,14 @@
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80303000000000002</v>
       </c>
       <c r="K66">
-        <f t="shared" si="3"/>
-        <v>-1.9029999999999991E-2</v>
-      </c>
-      <c r="L66">
-        <v>53</v>
-      </c>
-      <c r="M66">
-        <v>8.4990000000000006</v>
-      </c>
-      <c r="N66">
-        <v>0.80303000000000002</v>
-      </c>
-      <c r="O66" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>61</v>
-      </c>
-      <c r="B67">
-        <v>9.1989999999999998</v>
-      </c>
-      <c r="C67">
-        <v>0.78205100000000005</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.78494600000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D67">
         <v>0.70199999999999996</v>
       </c>
@@ -4828,37 +3632,15 @@
         <v>0.78205100000000005</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J101" si="4">MAX(F67,G67,H67,I67)-C67</f>
-        <v>3.7392999999999899E-2</v>
+        <f t="shared" ref="J67:J101" si="2">MAX(F67,G67,H67,I67)-C67</f>
+        <v>0.81944399999999995</v>
       </c>
       <c r="K67">
-        <f>G67-C67</f>
-        <v>2.5949E-2</v>
-      </c>
-      <c r="L67">
-        <v>61</v>
-      </c>
-      <c r="M67">
-        <v>9.1989999999999998</v>
-      </c>
-      <c r="N67">
-        <v>0.78205100000000005</v>
-      </c>
-      <c r="O67" t="b">
-        <f t="shared" ref="O67" si="5">L67=A67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>93</v>
-      </c>
-      <c r="B68">
-        <v>9.5519999999999996</v>
-      </c>
-      <c r="C68">
-        <v>0.77500000000000002</v>
-      </c>
+        <f t="shared" ref="K67:K101" si="3">H67-C67</f>
+        <v>0.81944399999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D68">
         <v>0.66400000000000003</v>
       </c>
@@ -4878,37 +3660,15 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.77500000000000002</v>
       </c>
       <c r="K68">
-        <f>G68-C68</f>
-        <v>-4.9000000000000044E-2</v>
-      </c>
-      <c r="L68">
-        <v>93</v>
-      </c>
-      <c r="M68">
-        <v>9.5519999999999996</v>
-      </c>
-      <c r="N68">
+        <f t="shared" si="3"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="O68" t="b">
-        <f>L71=A68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>53</v>
-      </c>
-      <c r="B69">
-        <v>9.0980000000000008</v>
-      </c>
-      <c r="C69">
-        <v>0.76811600000000002</v>
-      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D69">
         <v>0.67</v>
       </c>
@@ -4928,37 +3688,15 @@
         <v>0.76811600000000002</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.76811600000000002</v>
       </c>
       <c r="K69">
-        <f>G69-C69</f>
-        <v>-1.1600000000000499E-4</v>
-      </c>
-      <c r="L69">
-        <v>53</v>
-      </c>
-      <c r="M69">
-        <v>9.0980000000000008</v>
-      </c>
-      <c r="N69">
+        <f t="shared" si="3"/>
         <v>0.76811600000000002</v>
       </c>
-      <c r="O69" t="b">
-        <f>L72=A69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>61</v>
-      </c>
-      <c r="B70">
-        <v>9.1859999999999999</v>
-      </c>
-      <c r="C70">
-        <v>0.74390199999999995</v>
-      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D70">
         <v>0.60299999999999998</v>
       </c>
@@ -4978,37 +3716,15 @@
         <v>0.74390199999999995</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
-        <v>1.8098000000000058E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.76200000000000001</v>
       </c>
       <c r="K70">
-        <f>G70-C70</f>
-        <v>1.8098000000000058E-2</v>
-      </c>
-      <c r="L70">
-        <v>61</v>
-      </c>
-      <c r="M70">
-        <v>9.1859999999999999</v>
-      </c>
-      <c r="N70">
+        <f t="shared" si="3"/>
         <v>0.74390199999999995</v>
       </c>
-      <c r="O70" t="b">
-        <f>L73=A70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>74</v>
-      </c>
-      <c r="B71">
-        <v>9.8140000000000001</v>
-      </c>
-      <c r="C71">
-        <v>0.88095199999999996</v>
-      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D71">
         <v>0.69799999999999995</v>
       </c>
@@ -5028,37 +3744,15 @@
         <v>0.88095199999999996</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.88095199999999996</v>
       </c>
       <c r="K71">
-        <f>G71-C71</f>
-        <v>-8.5951999999999917E-2</v>
-      </c>
-      <c r="L71">
-        <v>74</v>
-      </c>
-      <c r="M71">
-        <v>9.8140000000000001</v>
-      </c>
-      <c r="N71">
-        <v>0.88095199999999996</v>
-      </c>
-      <c r="O71" t="b">
-        <f>L74=A71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>59</v>
-      </c>
-      <c r="B72">
-        <v>9.3550000000000004</v>
-      </c>
-      <c r="C72">
-        <v>0.77631600000000001</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.75510200000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D72">
         <v>0.64100000000000001</v>
       </c>
@@ -5078,37 +3772,15 @@
         <v>0.77631600000000001</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.77631600000000001</v>
       </c>
       <c r="K72">
-        <f>G72-C72</f>
-        <v>-2.0316000000000001E-2</v>
-      </c>
-      <c r="L72">
-        <v>59</v>
-      </c>
-      <c r="M72">
-        <v>9.3550000000000004</v>
-      </c>
-      <c r="N72">
-        <v>0.77631600000000001</v>
-      </c>
-      <c r="O72" t="b">
-        <f>L75=A72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>59</v>
-      </c>
-      <c r="B73">
-        <v>9.0470000000000006</v>
-      </c>
-      <c r="C73">
-        <v>0.80821900000000002</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.75641000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D73">
         <v>0.67</v>
       </c>
@@ -5128,37 +3800,15 @@
         <v>0.80821900000000002</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.80821900000000002</v>
       </c>
       <c r="K73">
-        <f>G73-C73</f>
-        <v>-2.2218999999999989E-2</v>
-      </c>
-      <c r="L73">
-        <v>59</v>
-      </c>
-      <c r="M73">
-        <v>9.0470000000000006</v>
-      </c>
-      <c r="N73">
-        <v>0.80821900000000002</v>
-      </c>
-      <c r="O73" t="b">
-        <f>L76=A73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>70</v>
-      </c>
-      <c r="B74">
-        <v>9.3469999999999995</v>
-      </c>
-      <c r="C74">
-        <v>0.95890399999999998</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.78666700000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D74">
         <v>0.73599999999999999</v>
       </c>
@@ -5178,37 +3828,15 @@
         <v>0.95890399999999998</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
-        <v>2.7011000000000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.98591499999999999</v>
       </c>
       <c r="K74">
-        <f>G74-C74</f>
-        <v>-9.040000000000159E-4</v>
-      </c>
-      <c r="L74">
-        <v>70</v>
-      </c>
-      <c r="M74">
-        <v>9.3469999999999995</v>
-      </c>
-      <c r="N74">
-        <v>0.95890399999999998</v>
-      </c>
-      <c r="O74" t="b">
-        <f>L77=A74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>85</v>
-      </c>
-      <c r="B75">
-        <v>10.205</v>
-      </c>
-      <c r="C75">
-        <v>0.82524299999999995</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.98591499999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D75">
         <v>0.65300000000000002</v>
       </c>
@@ -5228,37 +3856,15 @@
         <v>0.82524299999999995</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.82524299999999995</v>
       </c>
       <c r="K75">
-        <f>G75-C75</f>
-        <v>-8.6242999999999959E-2</v>
-      </c>
-      <c r="L75">
-        <v>85</v>
-      </c>
-      <c r="M75">
-        <v>10.205</v>
-      </c>
-      <c r="N75">
-        <v>0.82524299999999995</v>
-      </c>
-      <c r="O75" t="b">
-        <f>L78=A75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>100</v>
-      </c>
-      <c r="B76">
-        <v>10.625</v>
-      </c>
-      <c r="C76">
-        <v>0.769231</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.76576599999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D76">
         <v>0.72399999999999998</v>
       </c>
@@ -5278,37 +3884,15 @@
         <v>0.769231</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
-        <v>3.0769000000000046E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.8</v>
       </c>
       <c r="K76">
-        <f>G76-C76</f>
-        <v>3.0769000000000046E-2</v>
-      </c>
-      <c r="L76">
-        <v>100</v>
-      </c>
-      <c r="M76">
-        <v>10.625</v>
-      </c>
-      <c r="N76">
-        <v>0.769231</v>
-      </c>
-      <c r="O76" t="b">
-        <f>L79=A76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>59</v>
-      </c>
-      <c r="B77">
-        <v>9.0790000000000006</v>
-      </c>
-      <c r="C77">
-        <v>0.80821900000000002</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.77519400000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D77">
         <v>0.72799999999999998</v>
       </c>
@@ -5328,37 +3912,15 @@
         <v>0.80821900000000002</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.80821900000000002</v>
       </c>
       <c r="K77">
-        <f>G77-C77</f>
-        <v>-6.2219000000000024E-2</v>
-      </c>
-      <c r="L77">
-        <v>59</v>
-      </c>
-      <c r="M77">
-        <v>9.0790000000000006</v>
-      </c>
-      <c r="N77">
-        <v>0.80821900000000002</v>
-      </c>
-      <c r="O77" t="b">
-        <f>L80=A77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>57</v>
-      </c>
-      <c r="B78">
-        <v>9.7469999999999999</v>
-      </c>
-      <c r="C78">
-        <v>0.75</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.76623399999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D78">
         <v>0.66200000000000003</v>
       </c>
@@ -5378,37 +3940,15 @@
         <v>0.75</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
-        <v>5.2000000000000046E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.80200000000000005</v>
       </c>
       <c r="K78">
-        <f>G78-C78</f>
-        <v>5.2000000000000046E-2</v>
-      </c>
-      <c r="L78">
-        <v>57</v>
-      </c>
-      <c r="M78">
-        <v>9.7469999999999999</v>
-      </c>
-      <c r="N78">
-        <v>0.75</v>
-      </c>
-      <c r="O78" t="b">
-        <f>L81=A78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>97</v>
-      </c>
-      <c r="B79">
-        <v>10.663</v>
-      </c>
-      <c r="C79">
-        <v>0.723881</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.77027000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D79">
         <v>0.61699999999999999</v>
       </c>
@@ -5428,37 +3968,15 @@
         <v>0.723881</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.723881</v>
       </c>
       <c r="K79">
-        <f>G79-C79</f>
-        <v>-8.8100000000002066E-4</v>
-      </c>
-      <c r="L79">
-        <v>97</v>
-      </c>
-      <c r="M79">
-        <v>10.663</v>
-      </c>
-      <c r="N79">
+        <f t="shared" si="3"/>
         <v>0.723881</v>
       </c>
-      <c r="O79" t="b">
-        <f>L82=A79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>64</v>
-      </c>
-      <c r="B80">
-        <v>9.24</v>
-      </c>
-      <c r="C80">
-        <v>0.83116900000000005</v>
-      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D80">
         <v>0.72699999999999998</v>
       </c>
@@ -5478,37 +3996,15 @@
         <v>0.83116900000000005</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
-        <v>0.21783099999999989</v>
+        <f t="shared" si="2"/>
+        <v>1.0489999999999999</v>
       </c>
       <c r="K80">
-        <f>G80-C80</f>
-        <v>0.13783099999999993</v>
-      </c>
-      <c r="L80">
-        <v>64</v>
-      </c>
-      <c r="M80">
-        <v>9.24</v>
-      </c>
-      <c r="N80">
-        <v>0.83116900000000005</v>
-      </c>
-      <c r="O80" t="b">
-        <f>L83=A80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>98</v>
-      </c>
-      <c r="B81">
-        <v>10.321</v>
-      </c>
-      <c r="C81">
-        <v>0.81666700000000003</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.98461500000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D81">
         <v>0.69</v>
       </c>
@@ -5528,37 +4024,15 @@
         <v>0.81666700000000003</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
-        <v>5.0589999999999913E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.86725699999999994</v>
       </c>
       <c r="K81">
-        <f>G81-C81</f>
-        <v>2.0332999999999934E-2</v>
-      </c>
-      <c r="L81">
-        <v>98</v>
-      </c>
-      <c r="M81">
-        <v>10.321</v>
-      </c>
-      <c r="N81">
-        <v>0.81666700000000003</v>
-      </c>
-      <c r="O81" t="b">
-        <f>L84=A81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>70</v>
-      </c>
-      <c r="B82">
-        <v>9.6150000000000002</v>
-      </c>
-      <c r="C82">
-        <v>0.86419800000000002</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.86725699999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D82">
         <v>0.69299999999999995</v>
       </c>
@@ -5578,37 +4052,15 @@
         <v>0.86419800000000002</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
-        <v>4.4892999999999961E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.90909099999999998</v>
       </c>
       <c r="K82">
-        <f>G82-C82</f>
-        <v>4.4802000000000008E-2</v>
-      </c>
-      <c r="L82">
-        <v>70</v>
-      </c>
-      <c r="M82">
-        <v>9.6150000000000002</v>
-      </c>
-      <c r="N82">
-        <v>0.86419800000000002</v>
-      </c>
-      <c r="O82" t="b">
-        <f>L85=A82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>10.115</v>
-      </c>
-      <c r="C83">
-        <v>0.79439300000000002</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.90909099999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D83">
         <v>0.69099999999999995</v>
       </c>
@@ -5628,37 +4080,15 @@
         <v>0.79439300000000002</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.79439300000000002</v>
       </c>
       <c r="K83">
-        <f>G83-C83</f>
-        <v>-3.6393000000000009E-2</v>
-      </c>
-      <c r="L83">
-        <v>85</v>
-      </c>
-      <c r="M83">
-        <v>10.115</v>
-      </c>
-      <c r="N83">
-        <v>0.79439300000000002</v>
-      </c>
-      <c r="O83" t="b">
-        <f>L86=A83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>50</v>
-      </c>
-      <c r="B84">
-        <v>7.1079999999999997</v>
-      </c>
-      <c r="C84">
-        <v>1.0416700000000001</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.73912999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D84">
         <v>0.78100000000000003</v>
       </c>
@@ -5678,37 +4108,15 @@
         <v>1.0416700000000001</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0416700000000001</v>
       </c>
       <c r="K84">
-        <f>G84-C84</f>
-        <v>-6.1670000000000114E-2</v>
-      </c>
-      <c r="L84">
-        <v>50</v>
-      </c>
-      <c r="M84">
-        <v>7.1079999999999997</v>
-      </c>
-      <c r="N84">
-        <v>1.0416700000000001</v>
-      </c>
-      <c r="O84" t="b">
-        <f>L87=A84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>63</v>
-      </c>
-      <c r="B85">
-        <v>9.26</v>
-      </c>
-      <c r="C85">
-        <v>0.768293</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.877193</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D85">
         <v>0.64200000000000002</v>
       </c>
@@ -5728,37 +4136,15 @@
         <v>0.768293</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.768293</v>
       </c>
       <c r="K85">
-        <f>G85-C85</f>
-        <v>-1.8293000000000004E-2</v>
-      </c>
-      <c r="L85">
-        <v>63</v>
-      </c>
-      <c r="M85">
-        <v>9.26</v>
-      </c>
-      <c r="N85">
-        <v>0.768293</v>
-      </c>
-      <c r="O85" t="b">
-        <f>L88=A85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>80</v>
-      </c>
-      <c r="B86">
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="C86">
-        <v>0.769231</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.75903600000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D86">
         <v>0.65</v>
       </c>
@@ -5778,37 +4164,15 @@
         <v>0.769231</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
-        <v>1.4769000000000032E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.78400000000000003</v>
       </c>
       <c r="K86">
-        <f>G86-C86</f>
-        <v>1.4769000000000032E-2</v>
-      </c>
-      <c r="L86">
-        <v>80</v>
-      </c>
-      <c r="M86">
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="N86">
-        <v>0.769231</v>
-      </c>
-      <c r="O86" t="b">
-        <f>L89=A86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>58</v>
-      </c>
-      <c r="B87">
-        <v>9.0540000000000003</v>
-      </c>
-      <c r="C87">
-        <v>0.90625</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.77669900000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D87">
         <v>0.67400000000000004</v>
       </c>
@@ -5828,37 +4192,15 @@
         <v>0.90625</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
-        <v>0.12874999999999992</v>
+        <f t="shared" si="2"/>
+        <v>1.0349999999999999</v>
       </c>
       <c r="K87">
-        <f>G87-C87</f>
-        <v>0.12874999999999992</v>
-      </c>
-      <c r="L87">
-        <v>58</v>
-      </c>
-      <c r="M87">
-        <v>9.0540000000000003</v>
-      </c>
-      <c r="N87">
-        <v>0.90625</v>
-      </c>
-      <c r="O87" t="b">
-        <f>L90=A87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>61</v>
-      </c>
-      <c r="B88">
-        <v>9.41</v>
-      </c>
-      <c r="C88">
-        <v>0.77215199999999995</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.84057999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D88">
         <v>0.72599999999999998</v>
       </c>
@@ -5878,37 +4220,15 @@
         <v>0.77215199999999995</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
-        <v>2.0056000000000074E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.79220800000000002</v>
       </c>
       <c r="K88">
-        <f>G88-C88</f>
-        <v>-1.5199999999992997E-4</v>
-      </c>
-      <c r="L88">
-        <v>61</v>
-      </c>
-      <c r="M88">
-        <v>9.41</v>
-      </c>
-      <c r="N88">
-        <v>0.77215199999999995</v>
-      </c>
-      <c r="O88" t="b">
-        <f>L91=A88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>10.268000000000001</v>
-      </c>
-      <c r="C89">
-        <v>0.77391299999999996</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.79220800000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D89">
         <v>0.59699999999999998</v>
       </c>
@@ -5928,37 +4248,15 @@
         <v>0.77391299999999996</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.77391299999999996</v>
       </c>
       <c r="K89">
-        <f>G89-C89</f>
-        <v>-5.6912999999999991E-2</v>
-      </c>
-      <c r="L89">
-        <v>89</v>
-      </c>
-      <c r="M89">
-        <v>10.268000000000001</v>
-      </c>
-      <c r="N89">
-        <v>0.77391299999999996</v>
-      </c>
-      <c r="O89" t="b">
-        <f>L92=A89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>77</v>
-      </c>
-      <c r="B90">
-        <v>10.007999999999999</v>
-      </c>
-      <c r="C90">
-        <v>0.78571400000000002</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.75423700000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D90">
         <v>0.69299999999999995</v>
       </c>
@@ -5978,37 +4276,15 @@
         <v>0.78571400000000002</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.78571400000000002</v>
       </c>
       <c r="K90">
-        <f>G90-C90</f>
-        <v>-5.2714000000000039E-2</v>
-      </c>
-      <c r="L90">
-        <v>77</v>
-      </c>
-      <c r="M90">
-        <v>10.007999999999999</v>
-      </c>
-      <c r="N90">
-        <v>0.78571400000000002</v>
-      </c>
-      <c r="O90" t="b">
-        <f>L93=A90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>78</v>
-      </c>
-      <c r="B91">
-        <v>9.7469999999999999</v>
-      </c>
-      <c r="C91">
-        <v>0.84782599999999997</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.76237600000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D91">
         <v>0.64400000000000002</v>
       </c>
@@ -6028,37 +4304,15 @@
         <v>0.84782599999999997</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
-        <v>0.10339399999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.95121999999999995</v>
       </c>
       <c r="K91">
-        <f>G91-C91</f>
-        <v>-9.0825999999999962E-2</v>
-      </c>
-      <c r="L91">
-        <v>78</v>
-      </c>
-      <c r="M91">
-        <v>9.7469999999999999</v>
-      </c>
-      <c r="N91">
-        <v>0.84782599999999997</v>
-      </c>
-      <c r="O91" t="b">
-        <f>L94=A91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>96</v>
-      </c>
-      <c r="B92">
-        <v>10.379</v>
-      </c>
-      <c r="C92">
-        <v>0.90566000000000002</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.95121999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D92">
         <v>0.72099999999999997</v>
       </c>
@@ -6078,37 +4332,15 @@
         <v>0.90566000000000002</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.90566000000000002</v>
       </c>
       <c r="K92">
-        <f>G92-C92</f>
-        <v>-7.8660000000000063E-2</v>
-      </c>
-      <c r="L92">
-        <v>96</v>
-      </c>
-      <c r="M92">
-        <v>10.379</v>
-      </c>
-      <c r="N92">
-        <v>0.90566000000000002</v>
-      </c>
-      <c r="O92" t="b">
-        <f>L95=A92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>99</v>
-      </c>
-      <c r="B93">
-        <v>11.15</v>
-      </c>
-      <c r="C93">
-        <v>0.71223000000000003</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.82051300000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D93">
         <v>0.66400000000000003</v>
       </c>
@@ -6128,37 +4360,15 @@
         <v>0.71223000000000003</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
-        <v>1.5710999999999919E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.72794099999999995</v>
       </c>
       <c r="K93">
-        <f>G93-C93</f>
-        <v>-2.0230000000000081E-2</v>
-      </c>
-      <c r="L93">
-        <v>99</v>
-      </c>
-      <c r="M93">
-        <v>11.15</v>
-      </c>
-      <c r="N93">
-        <v>0.71223000000000003</v>
-      </c>
-      <c r="O93" t="b">
-        <f>L96=A93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>61</v>
-      </c>
-      <c r="B94">
-        <v>9.2370000000000001</v>
-      </c>
-      <c r="C94">
-        <v>0.75308600000000003</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.72794099999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D94">
         <v>0.69299999999999995</v>
       </c>
@@ -6178,37 +4388,15 @@
         <v>0.75308600000000003</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
-        <v>2.8913999999999995E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.78200000000000003</v>
       </c>
       <c r="K94">
-        <f>G94-C94</f>
-        <v>1.8913999999999986E-2</v>
-      </c>
-      <c r="L94">
-        <v>61</v>
-      </c>
-      <c r="M94">
-        <v>9.2370000000000001</v>
-      </c>
-      <c r="N94">
-        <v>0.75308600000000003</v>
-      </c>
-      <c r="O94" t="b">
-        <f>L97=A94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>69</v>
-      </c>
-      <c r="B95">
-        <v>9.9220000000000006</v>
-      </c>
-      <c r="C95">
-        <v>0.71875</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.74390199999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D95">
         <v>0.68300000000000005</v>
       </c>
@@ -6228,37 +4416,15 @@
         <v>0.71875</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
-        <v>9.3014999999999959E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.81176499999999996</v>
       </c>
       <c r="K95">
-        <f>G95-C95</f>
-        <v>2.2249999999999992E-2</v>
-      </c>
-      <c r="L95">
-        <v>69</v>
-      </c>
-      <c r="M95">
-        <v>9.9220000000000006</v>
-      </c>
-      <c r="N95">
-        <v>0.71875</v>
-      </c>
-      <c r="O95" t="b">
-        <f>L98=A95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>98</v>
-      </c>
-      <c r="B96">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="C96">
-        <v>0.859649</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.81176499999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D96">
         <v>0.7</v>
       </c>
@@ -6278,37 +4444,15 @@
         <v>0.859649</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
-        <v>4.7757999999999967E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.90740699999999996</v>
       </c>
       <c r="K96">
-        <f>G96-C96</f>
-        <v>-9.4648999999999983E-2</v>
-      </c>
-      <c r="L96">
-        <v>98</v>
-      </c>
-      <c r="M96">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="N96">
-        <v>0.859649</v>
-      </c>
-      <c r="O96" t="b">
-        <f>L99=A96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>75</v>
-      </c>
-      <c r="B97">
-        <v>10.17</v>
-      </c>
-      <c r="C97">
-        <v>0.74257399999999996</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.90740699999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D97">
         <v>0.69399999999999995</v>
       </c>
@@ -6328,37 +4472,15 @@
         <v>0.74257399999999996</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
-        <v>4.6900000000000053E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.78947400000000001</v>
       </c>
       <c r="K97">
-        <f>G97-C97</f>
-        <v>-7.5739999999999696E-3</v>
-      </c>
-      <c r="L97">
-        <v>75</v>
-      </c>
-      <c r="M97">
-        <v>10.17</v>
-      </c>
-      <c r="N97">
-        <v>0.74257399999999996</v>
-      </c>
-      <c r="O97" t="b">
-        <f>L100=A97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>61</v>
-      </c>
-      <c r="B98">
-        <v>9.1839999999999993</v>
-      </c>
-      <c r="C98">
-        <v>0.79220800000000002</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.78947400000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D98">
         <v>0.67</v>
       </c>
@@ -6378,37 +4500,15 @@
         <v>0.79220800000000002</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.79220800000000002</v>
       </c>
       <c r="K98">
-        <f>G98-C98</f>
-        <v>-1.0207999999999995E-2</v>
-      </c>
-      <c r="L98">
-        <v>61</v>
-      </c>
-      <c r="M98">
-        <v>9.1839999999999993</v>
-      </c>
-      <c r="N98">
+        <f t="shared" si="3"/>
         <v>0.79220800000000002</v>
       </c>
-      <c r="O98" t="b">
-        <f>L101=A98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>58</v>
-      </c>
-      <c r="B99">
-        <v>9.1590000000000007</v>
-      </c>
-      <c r="C99">
-        <v>0.85294099999999995</v>
-      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D99">
         <v>0.74299999999999999</v>
       </c>
@@ -6428,37 +4528,15 @@
         <v>0.85294099999999995</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
-        <v>9.7879000000000049E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.95082</v>
       </c>
       <c r="K99">
-        <f>G99-C99</f>
-        <v>8.2059000000000104E-2</v>
-      </c>
-      <c r="L99">
-        <v>58</v>
-      </c>
-      <c r="M99">
-        <v>9.1590000000000007</v>
-      </c>
-      <c r="N99">
-        <v>0.85294099999999995</v>
-      </c>
-      <c r="O99" t="b">
-        <f>L102=A99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>55</v>
-      </c>
-      <c r="B100">
-        <v>9.1</v>
-      </c>
-      <c r="C100">
-        <v>0.80882399999999999</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.95082</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D100">
         <v>0.64700000000000002</v>
       </c>
@@ -6478,37 +4556,15 @@
         <v>0.80882399999999999</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
-        <v>5.0175999999999998E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.85899999999999999</v>
       </c>
       <c r="K100">
-        <f>G100-C100</f>
-        <v>5.0175999999999998E-2</v>
-      </c>
-      <c r="L100">
-        <v>55</v>
-      </c>
-      <c r="M100">
-        <v>9.1</v>
-      </c>
-      <c r="N100">
-        <v>0.80882399999999999</v>
-      </c>
-      <c r="O100" t="b">
-        <f>L103=A100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>87</v>
-      </c>
-      <c r="B101">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="C101">
-        <v>0.73109199999999996</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0.78571400000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D101">
         <v>0.64900000000000002</v>
       </c>
@@ -6528,28 +4584,15 @@
         <v>0.73109199999999996</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.73109199999999996</v>
       </c>
       <c r="K101">
-        <f>G101-C101</f>
-        <v>-3.0092000000000008E-2</v>
-      </c>
-      <c r="L101">
-        <v>87</v>
-      </c>
-      <c r="M101">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="N101">
-        <v>0.73109199999999996</v>
-      </c>
-      <c r="O101" t="b">
-        <f>L104=A101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0.71311500000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D102">
         <f>SUM(D2:D101)</f>
         <v>67.923999999999978</v>
@@ -6569,13 +4612,17 @@
         <f>SUM(H2:H101)</f>
         <v>81.967791000000005</v>
       </c>
+      <c r="I102">
+        <f>SUM(I2:I101)</f>
+        <v>81.70772599999998</v>
+      </c>
       <c r="J102">
         <f>SUM(J2:J101)</f>
-        <v>3.551218</v>
+        <v>68.775161999999966</v>
       </c>
       <c r="K102">
         <f>SUM(K2:K101)</f>
-        <v>-1.7433010000000009</v>
+        <v>65.252839999999992</v>
       </c>
     </row>
   </sheetData>
